--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -7271,8 +7271,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -448,7 +448,7 @@
     <t>V99+  (1GB+8GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 17/06/2021</t>
+    <t>Last Updated on: 24/06/2021</t>
   </si>
 </sst>
 </file>
@@ -7271,8 +7271,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H62" sqref="H62"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="139">
   <si>
     <t>Model Name</t>
   </si>
@@ -448,7 +448,16 @@
     <t>V99+  (1GB+8GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 24/06/2021</t>
+    <t>Last Updated on: 27/06/2021</t>
+  </si>
+  <si>
+    <t>New Price update 26-06-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13MP+2MP+2MP+8MP   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.82" </t>
   </si>
 </sst>
 </file>
@@ -688,7 +697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -758,6 +767,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7271,8 +7295,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7282,46 +7306,46 @@
     <col min="3" max="4" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="30" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="17" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -7377,73 +7401,79 @@
       <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="6">
-        <v>920</v>
-      </c>
-      <c r="D6" s="6">
-        <v>990</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C6" s="29">
+        <v>1060</v>
+      </c>
+      <c r="D6" s="29">
+        <v>1140</v>
+      </c>
+      <c r="E6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="27" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="7">
-        <v>940</v>
-      </c>
-      <c r="D7" s="7">
-        <v>999</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="C7" s="31">
+        <v>1060</v>
+      </c>
+      <c r="D7" s="31">
+        <v>1140</v>
+      </c>
+      <c r="E7" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="27" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7">
-        <v>940</v>
-      </c>
-      <c r="D8" s="7">
-        <v>999</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="C8" s="31">
+        <v>1070</v>
+      </c>
+      <c r="D8" s="31">
+        <v>1150</v>
+      </c>
+      <c r="E8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="27" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -7473,25 +7503,27 @@
       <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7">
-        <v>995</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1070</v>
-      </c>
-      <c r="E10" s="19" t="s">
+      <c r="C10" s="31">
+        <v>1160</v>
+      </c>
+      <c r="D10" s="31">
+        <v>1250</v>
+      </c>
+      <c r="E10" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="19"/>
+      <c r="H10" s="27" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
@@ -8349,17 +8381,15 @@
         <v>9990</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="19" t="s">
-        <v>99</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
@@ -8383,9 +8413,7 @@
       <c r="G48" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="H48" s="25" t="s">
-        <v>99</v>
-      </c>
+      <c r="H48" s="25"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
@@ -8409,9 +8437,7 @@
       <c r="G49" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="H49" s="19" t="s">
-        <v>99</v>
-      </c>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
@@ -8438,40 +8464,40 @@
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="35">
+      <c r="A52" s="40">
         <v>8801717436223</v>
       </c>
-      <c r="B52" s="36"/>
-      <c r="C52" s="29" t="s">
+      <c r="B52" s="41"/>
+      <c r="C52" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="30"/>
-      <c r="E52" s="30"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="28" t="s">
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="28"/>
+      <c r="H52" s="33"/>
     </row>
     <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38"/>
-      <c r="C53" s="32"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="33"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="43"/>
+      <c r="C53" s="37"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="33"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="27"/>
-      <c r="C54" s="27"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="27"/>
-      <c r="G54" s="27"/>
-      <c r="H54" s="27"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8511,40 +8537,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9151,40 +9177,40 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35">
+      <c r="A29" s="40">
         <v>8801717436223</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="29" t="s">
+      <c r="B29" s="41"/>
+      <c r="C29" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="28" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="28"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="37"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9222,40 +9248,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9810,40 +9836,40 @@
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="35">
+      <c r="A27" s="40">
         <v>8801717436223</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="29" t="s">
+      <c r="B27" s="41"/>
+      <c r="C27" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="28" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="28"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
   </sheetData>
   <sortState ref="B5:K51">
@@ -9881,28 +9907,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="49" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
-    <sheet name="Sym Barphony" sheetId="6" r:id="rId2"/>
-    <sheet name="Sym Smartphone" sheetId="5" r:id="rId3"/>
-    <sheet name="realme" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Sym Barphony" sheetId="6" r:id="rId3"/>
+    <sheet name="Sym Smartphone" sheetId="5" r:id="rId4"/>
+    <sheet name="realme" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symphony!$A$4:$G$4</definedName>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="143">
   <si>
     <t>Model Name</t>
   </si>
@@ -448,9 +449,6 @@
     <t>V99+  (1GB+8GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 27/06/2021</t>
-  </si>
-  <si>
     <t>New Price update 26-06-2021</t>
   </si>
   <si>
@@ -458,6 +456,21 @@
   </si>
   <si>
     <t xml:space="preserve">6.82" </t>
+  </si>
+  <si>
+    <t>New Price update 29-05-2021</t>
+  </si>
+  <si>
+    <t>Last Updated on: 29/06/2021</t>
+  </si>
+  <si>
+    <t>D54+</t>
+  </si>
+  <si>
+    <t>L260</t>
+  </si>
+  <si>
+    <t>L135</t>
   </si>
 </sst>
 </file>
@@ -7294,9 +7307,9 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5:D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7337,7 +7350,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -7420,7 +7433,7 @@
         <v>28</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7446,7 +7459,7 @@
         <v>28</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7472,7 +7485,7 @@
         <v>28</v>
       </c>
       <c r="H8" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -7522,7 +7535,7 @@
         <v>28</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8231,10 +8244,10 @@
         <v>121</v>
       </c>
       <c r="C41" s="7">
-        <v>7250</v>
+        <v>7430</v>
       </c>
       <c r="D41" s="7">
-        <v>7790</v>
+        <v>7990</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>55</v>
@@ -8245,7 +8258,9 @@
       <c r="G41" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="H41" s="19"/>
+      <c r="H41" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
@@ -8381,13 +8396,13 @@
         <v>9990</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F47" s="5" t="s">
         <v>80</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H47" s="19"/>
     </row>
@@ -8517,6 +8532,244 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="7">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12" s="7">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="7">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B15" s="7">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="7">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B19" s="7">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="7">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="7">
+        <v>7430</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" s="7">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B23" s="7">
+        <v>10130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7980</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="7">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="24">
+        <v>10230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="7">
+        <v>9290</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="20"/>
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="20"/>
+      <c r="B29" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -9227,7 +9480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -9889,7 +10142,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="143">
   <si>
     <t>Model Name</t>
   </si>
@@ -461,9 +461,6 @@
     <t>New Price update 29-05-2021</t>
   </si>
   <si>
-    <t>Last Updated on: 29/06/2021</t>
-  </si>
-  <si>
     <t>D54+</t>
   </si>
   <si>
@@ -471,6 +468,9 @@
   </si>
   <si>
     <t>L135</t>
+  </si>
+  <si>
+    <t>Last Updated on: 30/06/2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -797,6 +797,9 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -822,6 +825,27 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -832,15 +856,6 @@
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -874,15 +889,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>122531</xdr:colOff>
+      <xdr:colOff>84431</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>41124</xdr:rowOff>
+      <xdr:rowOff>31599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>793686</xdr:colOff>
+      <xdr:colOff>755586</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>133961</xdr:rowOff>
+      <xdr:rowOff>124436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -899,7 +914,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="122531" y="11699724"/>
+          <a:off x="84431" y="11690199"/>
           <a:ext cx="5147905" cy="302387"/>
           <a:chOff x="242" y="249"/>
           <a:chExt cx="354" cy="300"/>
@@ -920,7 +935,7 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="366" y="275"/>
+            <a:off x="362" y="275"/>
             <a:ext cx="11" cy="255"/>
           </a:xfrm>
           <a:custGeom>
@@ -7307,9 +7322,9 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7325,40 +7340,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="A3" s="47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8217,22 +8232,22 @@
         <v>11</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C40" s="7">
-        <v>7790</v>
+        <v>7350</v>
       </c>
       <c r="D40" s="7">
-        <v>8290</v>
+        <v>7990</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H40" s="19"/>
     </row>
@@ -8241,72 +8256,72 @@
         <v>12</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C41" s="7">
-        <v>7430</v>
+        <v>7790</v>
       </c>
       <c r="D41" s="7">
-        <v>7990</v>
+        <v>8290</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>138</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
         <v>13</v>
       </c>
-      <c r="B42" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="7">
-        <v>7800</v>
-      </c>
-      <c r="D42" s="7">
-        <v>8390</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="19"/>
+      <c r="B42" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="31">
+        <v>7430</v>
+      </c>
+      <c r="D42" s="31">
+        <v>7990</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
         <v>14</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C43" s="7">
-        <v>7980</v>
+        <v>7800</v>
       </c>
       <c r="D43" s="7">
-        <v>8490</v>
+        <v>8390</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H43" s="19"/>
     </row>
@@ -8315,19 +8330,19 @@
         <v>15</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C44" s="7">
-        <v>9300</v>
+        <v>7980</v>
       </c>
       <c r="D44" s="7">
-        <v>9790</v>
+        <v>8490</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G44" s="19" t="s">
         <v>64</v>
@@ -8339,13 +8354,13 @@
         <v>16</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C45" s="7">
-        <v>10130</v>
+        <v>9300</v>
       </c>
       <c r="D45" s="7">
-        <v>10890</v>
+        <v>9790</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>55</v>
@@ -8363,13 +8378,13 @@
         <v>17</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C46" s="7">
-        <v>7980</v>
+        <v>10130</v>
       </c>
       <c r="D46" s="7">
-        <v>8590</v>
+        <v>10890</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>55</v>
@@ -8378,7 +8393,7 @@
         <v>56</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H46" s="19"/>
     </row>
@@ -8387,22 +8402,22 @@
         <v>18</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C47" s="7">
-        <v>9290</v>
+        <v>7980</v>
       </c>
       <c r="D47" s="7">
-        <v>9990</v>
+        <v>8590</v>
       </c>
       <c r="E47" s="19" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="H47" s="19"/>
     </row>
@@ -8410,60 +8425,72 @@
       <c r="A48" s="19">
         <v>19</v>
       </c>
-      <c r="B48" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C48" s="24">
-        <v>10230</v>
-      </c>
-      <c r="D48" s="24">
-        <v>10990</v>
-      </c>
-      <c r="E48" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F48" s="26" t="s">
+      <c r="B48" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C48" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D48" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G48" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H48" s="25"/>
+      <c r="G48" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
         <v>20</v>
       </c>
-      <c r="B49" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C49" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D49" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H49" s="19"/>
+      <c r="B49" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C49" s="24">
+        <v>10230</v>
+      </c>
+      <c r="D49" s="24">
+        <v>10990</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F49" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="25"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
         <v>21</v>
       </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="19"/>
+      <c r="B50" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C50" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D50" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>79</v>
+      </c>
       <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8479,40 +8506,40 @@
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
+      <c r="A52" s="41">
         <v>8801717436223</v>
       </c>
-      <c r="B52" s="41"/>
-      <c r="C52" s="34" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="36"/>
-      <c r="G52" s="33" t="s">
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="33"/>
+      <c r="H52" s="34"/>
     </row>
     <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="42"/>
-      <c r="B53" s="43"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="38"/>
-      <c r="E53" s="38"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="33"/>
-      <c r="H53" s="33"/>
+      <c r="A53" s="43"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="40"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32"/>
-      <c r="E54" s="32"/>
-      <c r="F54" s="32"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="32"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8535,7 +8562,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B27"/>
     </sheetView>
   </sheetViews>
@@ -8586,7 +8613,7 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B6" s="7">
         <v>1460</v>
@@ -8634,7 +8661,7 @@
     </row>
     <row r="12" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" s="7">
         <v>1280</v>
@@ -8658,7 +8685,7 @@
     </row>
     <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="7">
         <v>1400</v>
@@ -8790,40 +8817,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9430,40 +9457,40 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+      <c r="A29" s="48">
         <v>8801717436223</v>
       </c>
-      <c r="B29" s="41"/>
-      <c r="C29" s="34" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="33" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
-      <c r="B30" s="43"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9484,8 +9511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9501,40 +9528,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10089,40 +10116,40 @@
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="48">
         <v>8801717436223</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="34" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="33" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="32"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
   </sheetData>
   <sortState ref="B5:K51">
@@ -10160,28 +10187,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -470,7 +470,7 @@
     <t>L135</t>
   </si>
   <si>
-    <t>Last Updated on: 30/06/2021</t>
+    <t>Last Updated on: 04/07/2021</t>
   </si>
 </sst>
 </file>
@@ -7323,8 +7323,8 @@
   <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N12" sqref="N12"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="Sym Barphony" sheetId="6" r:id="rId3"/>
-    <sheet name="Sym Smartphone" sheetId="5" r:id="rId4"/>
-    <sheet name="realme" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sym Barphony" sheetId="6" r:id="rId4"/>
+    <sheet name="Sym Smartphone" sheetId="5" r:id="rId5"/>
+    <sheet name="realme" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symphony!$A$4:$G$4</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="144">
   <si>
     <t>Model Name</t>
   </si>
@@ -471,6 +472,9 @@
   </si>
   <si>
     <t>Last Updated on: 04/07/2021</t>
+  </si>
+  <si>
+    <t>Last Updated on: 05/07/2021</t>
   </si>
 </sst>
 </file>
@@ -710,7 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -795,6 +799,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2919,6 +2926,2036 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>84431</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>738849</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124436</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="84431" y="7346799"/>
+          <a:ext cx="5531218" cy="302387"/>
+          <a:chOff x="242" y="249"/>
+          <a:chExt cx="302" cy="300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Freeform 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="348" y="294"/>
+            <a:ext cx="11" cy="255"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 40 w 41"/>
+              <a:gd name="T1" fmla="*/ 19 h 66"/>
+              <a:gd name="T2" fmla="*/ 31 w 41"/>
+              <a:gd name="T3" fmla="*/ 5 h 66"/>
+              <a:gd name="T4" fmla="*/ 11 w 41"/>
+              <a:gd name="T5" fmla="*/ 4 h 66"/>
+              <a:gd name="T6" fmla="*/ 0 w 41"/>
+              <a:gd name="T7" fmla="*/ 22 h 66"/>
+              <a:gd name="T8" fmla="*/ 0 w 41"/>
+              <a:gd name="T9" fmla="*/ 25 h 66"/>
+              <a:gd name="T10" fmla="*/ 4 w 41"/>
+              <a:gd name="T11" fmla="*/ 38 h 66"/>
+              <a:gd name="T12" fmla="*/ 19 w 41"/>
+              <a:gd name="T13" fmla="*/ 65 h 66"/>
+              <a:gd name="T14" fmla="*/ 21 w 41"/>
+              <a:gd name="T15" fmla="*/ 65 h 66"/>
+              <a:gd name="T16" fmla="*/ 33 w 41"/>
+              <a:gd name="T17" fmla="*/ 43 h 66"/>
+              <a:gd name="T18" fmla="*/ 39 w 41"/>
+              <a:gd name="T19" fmla="*/ 29 h 66"/>
+              <a:gd name="T20" fmla="*/ 40 w 41"/>
+              <a:gd name="T21" fmla="*/ 19 h 66"/>
+              <a:gd name="T22" fmla="*/ 20 w 41"/>
+              <a:gd name="T23" fmla="*/ 32 h 66"/>
+              <a:gd name="T24" fmla="*/ 11 w 41"/>
+              <a:gd name="T25" fmla="*/ 22 h 66"/>
+              <a:gd name="T26" fmla="*/ 20 w 41"/>
+              <a:gd name="T27" fmla="*/ 13 h 66"/>
+              <a:gd name="T28" fmla="*/ 29 w 41"/>
+              <a:gd name="T29" fmla="*/ 22 h 66"/>
+              <a:gd name="T30" fmla="*/ 20 w 41"/>
+              <a:gd name="T31" fmla="*/ 32 h 66"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="41" h="66">
+                <a:moveTo>
+                  <a:pt x="40" y="19"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="13"/>
+                  <a:pt x="36" y="8"/>
+                  <a:pt x="31" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="1"/>
+                  <a:pt x="18" y="0"/>
+                  <a:pt x="11" y="4"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="7"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23"/>
+                  <a:pt x="0" y="24"/>
+                  <a:pt x="0" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="29"/>
+                  <a:pt x="2" y="34"/>
+                  <a:pt x="4" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="48"/>
+                  <a:pt x="13" y="57"/>
+                  <a:pt x="19" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="21" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="58"/>
+                  <a:pt x="30" y="51"/>
+                  <a:pt x="33" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="39"/>
+                  <a:pt x="38" y="34"/>
+                  <a:pt x="39" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="26"/>
+                  <a:pt x="41" y="22"/>
+                  <a:pt x="40" y="19"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="20" y="32"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="32"/>
+                  <a:pt x="11" y="27"/>
+                  <a:pt x="11" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="17"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="20" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="29" y="17"/>
+                  <a:pt x="29" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="27"/>
+                  <a:pt x="25" y="32"/>
+                  <a:pt x="20" y="32"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Freeform 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="531" y="311"/>
+            <a:ext cx="13" cy="229"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 26 w 53"/>
+              <a:gd name="T1" fmla="*/ 53 h 53"/>
+              <a:gd name="T2" fmla="*/ 25 w 53"/>
+              <a:gd name="T3" fmla="*/ 5 h 53"/>
+              <a:gd name="T4" fmla="*/ 25 w 53"/>
+              <a:gd name="T5" fmla="*/ 13 h 53"/>
+              <a:gd name="T6" fmla="*/ 18 w 53"/>
+              <a:gd name="T7" fmla="*/ 13 h 53"/>
+              <a:gd name="T8" fmla="*/ 25 w 53"/>
+              <a:gd name="T9" fmla="*/ 25 h 53"/>
+              <a:gd name="T10" fmla="*/ 15 w 53"/>
+              <a:gd name="T11" fmla="*/ 25 h 53"/>
+              <a:gd name="T12" fmla="*/ 25 w 53"/>
+              <a:gd name="T13" fmla="*/ 16 h 53"/>
+              <a:gd name="T14" fmla="*/ 10 w 53"/>
+              <a:gd name="T15" fmla="*/ 11 h 53"/>
+              <a:gd name="T16" fmla="*/ 21 w 53"/>
+              <a:gd name="T17" fmla="*/ 5 h 53"/>
+              <a:gd name="T18" fmla="*/ 15 w 53"/>
+              <a:gd name="T19" fmla="*/ 13 h 53"/>
+              <a:gd name="T20" fmla="*/ 8 w 53"/>
+              <a:gd name="T21" fmla="*/ 13 h 53"/>
+              <a:gd name="T22" fmla="*/ 6 w 53"/>
+              <a:gd name="T23" fmla="*/ 16 h 53"/>
+              <a:gd name="T24" fmla="*/ 14 w 53"/>
+              <a:gd name="T25" fmla="*/ 16 h 53"/>
+              <a:gd name="T26" fmla="*/ 12 w 53"/>
+              <a:gd name="T27" fmla="*/ 25 h 53"/>
+              <a:gd name="T28" fmla="*/ 4 w 53"/>
+              <a:gd name="T29" fmla="*/ 25 h 53"/>
+              <a:gd name="T30" fmla="*/ 4 w 53"/>
+              <a:gd name="T31" fmla="*/ 28 h 53"/>
+              <a:gd name="T32" fmla="*/ 12 w 53"/>
+              <a:gd name="T33" fmla="*/ 28 h 53"/>
+              <a:gd name="T34" fmla="*/ 14 w 53"/>
+              <a:gd name="T35" fmla="*/ 38 h 53"/>
+              <a:gd name="T36" fmla="*/ 21 w 53"/>
+              <a:gd name="T37" fmla="*/ 49 h 53"/>
+              <a:gd name="T38" fmla="*/ 8 w 53"/>
+              <a:gd name="T39" fmla="*/ 40 h 53"/>
+              <a:gd name="T40" fmla="*/ 15 w 53"/>
+              <a:gd name="T41" fmla="*/ 41 h 53"/>
+              <a:gd name="T42" fmla="*/ 25 w 53"/>
+              <a:gd name="T43" fmla="*/ 49 h 53"/>
+              <a:gd name="T44" fmla="*/ 18 w 53"/>
+              <a:gd name="T45" fmla="*/ 40 h 53"/>
+              <a:gd name="T46" fmla="*/ 25 w 53"/>
+              <a:gd name="T47" fmla="*/ 49 h 53"/>
+              <a:gd name="T48" fmla="*/ 17 w 53"/>
+              <a:gd name="T49" fmla="*/ 38 h 53"/>
+              <a:gd name="T50" fmla="*/ 15 w 53"/>
+              <a:gd name="T51" fmla="*/ 28 h 53"/>
+              <a:gd name="T52" fmla="*/ 25 w 53"/>
+              <a:gd name="T53" fmla="*/ 28 h 53"/>
+              <a:gd name="T54" fmla="*/ 46 w 53"/>
+              <a:gd name="T55" fmla="*/ 16 h 53"/>
+              <a:gd name="T56" fmla="*/ 45 w 53"/>
+              <a:gd name="T57" fmla="*/ 25 h 53"/>
+              <a:gd name="T58" fmla="*/ 38 w 53"/>
+              <a:gd name="T59" fmla="*/ 16 h 53"/>
+              <a:gd name="T60" fmla="*/ 32 w 53"/>
+              <a:gd name="T61" fmla="*/ 5 h 53"/>
+              <a:gd name="T62" fmla="*/ 44 w 53"/>
+              <a:gd name="T63" fmla="*/ 13 h 53"/>
+              <a:gd name="T64" fmla="*/ 38 w 53"/>
+              <a:gd name="T65" fmla="*/ 13 h 53"/>
+              <a:gd name="T66" fmla="*/ 32 w 53"/>
+              <a:gd name="T67" fmla="*/ 5 h 53"/>
+              <a:gd name="T68" fmla="*/ 32 w 53"/>
+              <a:gd name="T69" fmla="*/ 5 h 53"/>
+              <a:gd name="T70" fmla="*/ 29 w 53"/>
+              <a:gd name="T71" fmla="*/ 6 h 53"/>
+              <a:gd name="T72" fmla="*/ 28 w 53"/>
+              <a:gd name="T73" fmla="*/ 13 h 53"/>
+              <a:gd name="T74" fmla="*/ 28 w 53"/>
+              <a:gd name="T75" fmla="*/ 16 h 53"/>
+              <a:gd name="T76" fmla="*/ 36 w 53"/>
+              <a:gd name="T77" fmla="*/ 16 h 53"/>
+              <a:gd name="T78" fmla="*/ 33 w 53"/>
+              <a:gd name="T79" fmla="*/ 25 h 53"/>
+              <a:gd name="T80" fmla="*/ 28 w 53"/>
+              <a:gd name="T81" fmla="*/ 16 h 53"/>
+              <a:gd name="T82" fmla="*/ 33 w 53"/>
+              <a:gd name="T83" fmla="*/ 28 h 53"/>
+              <a:gd name="T84" fmla="*/ 36 w 53"/>
+              <a:gd name="T85" fmla="*/ 38 h 53"/>
+              <a:gd name="T86" fmla="*/ 28 w 53"/>
+              <a:gd name="T87" fmla="*/ 38 h 53"/>
+              <a:gd name="T88" fmla="*/ 28 w 53"/>
+              <a:gd name="T89" fmla="*/ 49 h 53"/>
+              <a:gd name="T90" fmla="*/ 28 w 53"/>
+              <a:gd name="T91" fmla="*/ 41 h 53"/>
+              <a:gd name="T92" fmla="*/ 34 w 53"/>
+              <a:gd name="T93" fmla="*/ 40 h 53"/>
+              <a:gd name="T94" fmla="*/ 32 w 53"/>
+              <a:gd name="T95" fmla="*/ 49 h 53"/>
+              <a:gd name="T96" fmla="*/ 38 w 53"/>
+              <a:gd name="T97" fmla="*/ 40 h 53"/>
+              <a:gd name="T98" fmla="*/ 39 w 53"/>
+              <a:gd name="T99" fmla="*/ 46 h 53"/>
+              <a:gd name="T100" fmla="*/ 39 w 53"/>
+              <a:gd name="T101" fmla="*/ 38 h 53"/>
+              <a:gd name="T102" fmla="*/ 40 w 53"/>
+              <a:gd name="T103" fmla="*/ 28 h 53"/>
+              <a:gd name="T104" fmla="*/ 49 w 53"/>
+              <a:gd name="T105" fmla="*/ 28 h 53"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T80" y="T81"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T82" y="T83"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T84" y="T85"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T86" y="T87"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T88" y="T89"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T90" y="T91"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T92" y="T93"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T94" y="T95"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T96" y="T97"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T98" y="T99"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T100" y="T101"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T102" y="T103"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T104" y="T105"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="53" h="53">
+                <a:moveTo>
+                  <a:pt x="26" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="0" y="12"/>
+                  <a:pt x="0" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="41"/>
+                  <a:pt x="12" y="53"/>
+                  <a:pt x="26" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="53"/>
+                  <a:pt x="53" y="41"/>
+                  <a:pt x="53" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="12"/>
+                  <a:pt x="41" y="0"/>
+                  <a:pt x="26" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="8"/>
+                  <a:pt x="25" y="10"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="13"/>
+                  <a:pt x="21" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="10"/>
+                  <a:pt x="22" y="7"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="25"/>
+                  <a:pt x="22" y="25"/>
+                  <a:pt x="20" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="25"/>
+                  <a:pt x="17" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="22"/>
+                  <a:pt x="16" y="19"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="16"/>
+                  <a:pt x="22" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="19"/>
+                  <a:pt x="25" y="22"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="10" y="11"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="8"/>
+                  <a:pt x="17" y="6"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="6"/>
+                  <a:pt x="18" y="8"/>
+                  <a:pt x="17" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="11"/>
+                  <a:pt x="16" y="12"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="13"/>
+                  <a:pt x="11" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="10" y="11"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="4" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="22"/>
+                  <a:pt x="5" y="19"/>
+                  <a:pt x="6" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="6" y="16"/>
+                  <a:pt x="7" y="16"/>
+                  <a:pt x="7" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="16"/>
+                  <a:pt x="12" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="18"/>
+                  <a:pt x="13" y="20"/>
+                  <a:pt x="13" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="23"/>
+                  <a:pt x="13" y="24"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="25"/>
+                  <a:pt x="9" y="25"/>
+                  <a:pt x="8" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="25"/>
+                  <a:pt x="5" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="7" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="38"/>
+                  <a:pt x="6" y="38"/>
+                  <a:pt x="6" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="35"/>
+                  <a:pt x="4" y="32"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="28"/>
+                  <a:pt x="9" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="31"/>
+                  <a:pt x="13" y="35"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="38"/>
+                  <a:pt x="9" y="38"/>
+                  <a:pt x="7" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="21" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="48"/>
+                  <a:pt x="16" y="47"/>
+                  <a:pt x="13" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="44"/>
+                  <a:pt x="10" y="42"/>
+                  <a:pt x="8" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="40"/>
+                  <a:pt x="13" y="40"/>
+                  <a:pt x="15" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="44"/>
+                  <a:pt x="19" y="46"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="47"/>
+                  <a:pt x="20" y="44"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="40"/>
+                  <a:pt x="23" y="40"/>
+                  <a:pt x="25" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="43"/>
+                  <a:pt x="25" y="46"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="38"/>
+                  <a:pt x="20" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="35"/>
+                  <a:pt x="15" y="31"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="28"/>
+                  <a:pt x="18" y="28"/>
+                  <a:pt x="20" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="28"/>
+                  <a:pt x="23" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="31"/>
+                  <a:pt x="25" y="34"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="19"/>
+                  <a:pt x="49" y="22"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="47" y="25"/>
+                  <a:pt x="46" y="25"/>
+                  <a:pt x="45" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="25"/>
+                  <a:pt x="42" y="25"/>
+                  <a:pt x="41" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="22"/>
+                  <a:pt x="40" y="19"/>
+                  <a:pt x="38" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="39" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="16"/>
+                  <a:pt x="44" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="32" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="5"/>
+                  <a:pt x="34" y="5"/>
+                  <a:pt x="36" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="8"/>
+                  <a:pt x="42" y="10"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="45" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="13"/>
+                  <a:pt x="40" y="13"/>
+                  <a:pt x="38" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="10"/>
+                  <a:pt x="34" y="7"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="31" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="29" y="5"/>
+                  <a:pt x="29" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="8"/>
+                  <a:pt x="33" y="10"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="13"/>
+                  <a:pt x="30" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="10"/>
+                  <a:pt x="28" y="7"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="16"/>
+                  <a:pt x="33" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="19"/>
+                  <a:pt x="38" y="22"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="26"/>
+                  <a:pt x="38" y="25"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="25"/>
+                  <a:pt x="34" y="25"/>
+                  <a:pt x="33" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="25"/>
+                  <a:pt x="29" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="22"/>
+                  <a:pt x="28" y="19"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="28"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="28"/>
+                  <a:pt x="31" y="28"/>
+                  <a:pt x="33" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="34" y="28"/>
+                  <a:pt x="36" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="31"/>
+                  <a:pt x="37" y="35"/>
+                  <a:pt x="36" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="35" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="38"/>
+                  <a:pt x="30" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="34"/>
+                  <a:pt x="28" y="31"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="46"/>
+                  <a:pt x="28" y="43"/>
+                  <a:pt x="28" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="40"/>
+                  <a:pt x="32" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="44"/>
+                  <a:pt x="31" y="46"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="39" y="46"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="47"/>
+                  <a:pt x="34" y="48"/>
+                  <a:pt x="32" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="48"/>
+                  <a:pt x="33" y="47"/>
+                  <a:pt x="34" y="46"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="44"/>
+                  <a:pt x="36" y="42"/>
+                  <a:pt x="37" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="38" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="40"/>
+                  <a:pt x="42" y="40"/>
+                  <a:pt x="44" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="45" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="41" y="44"/>
+                  <a:pt x="39" y="46"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="38"/>
+                  <a:pt x="41" y="38"/>
+                  <a:pt x="39" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="35"/>
+                  <a:pt x="40" y="32"/>
+                  <a:pt x="40" y="30"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="41" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="28"/>
+                  <a:pt x="43" y="28"/>
+                  <a:pt x="45" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="28"/>
+                  <a:pt x="47" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="32"/>
+                  <a:pt x="48" y="35"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freeform 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="242" y="294"/>
+            <a:ext cx="14" cy="226"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 64"/>
+              <a:gd name="T1" fmla="*/ 13 h 64"/>
+              <a:gd name="T2" fmla="*/ 1 w 64"/>
+              <a:gd name="T3" fmla="*/ 12 h 64"/>
+              <a:gd name="T4" fmla="*/ 2 w 64"/>
+              <a:gd name="T5" fmla="*/ 10 h 64"/>
+              <a:gd name="T6" fmla="*/ 11 w 64"/>
+              <a:gd name="T7" fmla="*/ 1 h 64"/>
+              <a:gd name="T8" fmla="*/ 15 w 64"/>
+              <a:gd name="T9" fmla="*/ 0 h 64"/>
+              <a:gd name="T10" fmla="*/ 16 w 64"/>
+              <a:gd name="T11" fmla="*/ 2 h 64"/>
+              <a:gd name="T12" fmla="*/ 23 w 64"/>
+              <a:gd name="T13" fmla="*/ 15 h 64"/>
+              <a:gd name="T14" fmla="*/ 23 w 64"/>
+              <a:gd name="T15" fmla="*/ 20 h 64"/>
+              <a:gd name="T16" fmla="*/ 19 w 64"/>
+              <a:gd name="T17" fmla="*/ 23 h 64"/>
+              <a:gd name="T18" fmla="*/ 19 w 64"/>
+              <a:gd name="T19" fmla="*/ 25 h 64"/>
+              <a:gd name="T20" fmla="*/ 21 w 64"/>
+              <a:gd name="T21" fmla="*/ 29 h 64"/>
+              <a:gd name="T22" fmla="*/ 25 w 64"/>
+              <a:gd name="T23" fmla="*/ 35 h 64"/>
+              <a:gd name="T24" fmla="*/ 34 w 64"/>
+              <a:gd name="T25" fmla="*/ 43 h 64"/>
+              <a:gd name="T26" fmla="*/ 39 w 64"/>
+              <a:gd name="T27" fmla="*/ 45 h 64"/>
+              <a:gd name="T28" fmla="*/ 41 w 64"/>
+              <a:gd name="T29" fmla="*/ 45 h 64"/>
+              <a:gd name="T30" fmla="*/ 44 w 64"/>
+              <a:gd name="T31" fmla="*/ 41 h 64"/>
+              <a:gd name="T32" fmla="*/ 50 w 64"/>
+              <a:gd name="T33" fmla="*/ 40 h 64"/>
+              <a:gd name="T34" fmla="*/ 62 w 64"/>
+              <a:gd name="T35" fmla="*/ 48 h 64"/>
+              <a:gd name="T36" fmla="*/ 64 w 64"/>
+              <a:gd name="T37" fmla="*/ 50 h 64"/>
+              <a:gd name="T38" fmla="*/ 63 w 64"/>
+              <a:gd name="T39" fmla="*/ 52 h 64"/>
+              <a:gd name="T40" fmla="*/ 63 w 64"/>
+              <a:gd name="T41" fmla="*/ 53 h 64"/>
+              <a:gd name="T42" fmla="*/ 54 w 64"/>
+              <a:gd name="T43" fmla="*/ 61 h 64"/>
+              <a:gd name="T44" fmla="*/ 50 w 64"/>
+              <a:gd name="T45" fmla="*/ 63 h 64"/>
+              <a:gd name="T46" fmla="*/ 50 w 64"/>
+              <a:gd name="T47" fmla="*/ 64 h 64"/>
+              <a:gd name="T48" fmla="*/ 50 w 64"/>
+              <a:gd name="T49" fmla="*/ 64 h 64"/>
+              <a:gd name="T50" fmla="*/ 49 w 64"/>
+              <a:gd name="T51" fmla="*/ 64 h 64"/>
+              <a:gd name="T52" fmla="*/ 48 w 64"/>
+              <a:gd name="T53" fmla="*/ 64 h 64"/>
+              <a:gd name="T54" fmla="*/ 43 w 64"/>
+              <a:gd name="T55" fmla="*/ 63 h 64"/>
+              <a:gd name="T56" fmla="*/ 35 w 64"/>
+              <a:gd name="T57" fmla="*/ 60 h 64"/>
+              <a:gd name="T58" fmla="*/ 26 w 64"/>
+              <a:gd name="T59" fmla="*/ 54 h 64"/>
+              <a:gd name="T60" fmla="*/ 21 w 64"/>
+              <a:gd name="T61" fmla="*/ 50 h 64"/>
+              <a:gd name="T62" fmla="*/ 16 w 64"/>
+              <a:gd name="T63" fmla="*/ 45 h 64"/>
+              <a:gd name="T64" fmla="*/ 6 w 64"/>
+              <a:gd name="T65" fmla="*/ 32 h 64"/>
+              <a:gd name="T66" fmla="*/ 1 w 64"/>
+              <a:gd name="T67" fmla="*/ 19 h 64"/>
+              <a:gd name="T68" fmla="*/ 0 w 64"/>
+              <a:gd name="T69" fmla="*/ 16 h 64"/>
+              <a:gd name="T70" fmla="*/ 0 w 64"/>
+              <a:gd name="T71" fmla="*/ 16 h 64"/>
+              <a:gd name="T72" fmla="*/ 0 w 64"/>
+              <a:gd name="T73" fmla="*/ 15 h 64"/>
+              <a:gd name="T74" fmla="*/ 0 w 64"/>
+              <a:gd name="T75" fmla="*/ 15 h 64"/>
+              <a:gd name="T76" fmla="*/ 0 w 64"/>
+              <a:gd name="T77" fmla="*/ 14 h 64"/>
+              <a:gd name="T78" fmla="*/ 0 w 64"/>
+              <a:gd name="T79" fmla="*/ 13 h 64"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="64" h="64">
+                <a:moveTo>
+                  <a:pt x="0" y="13"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="13"/>
+                  <a:pt x="0" y="13"/>
+                  <a:pt x="1" y="12"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="2" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="7"/>
+                  <a:pt x="8" y="4"/>
+                  <a:pt x="11" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="14" y="0"/>
+                  <a:pt x="15" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="1"/>
+                  <a:pt x="16" y="1"/>
+                  <a:pt x="16" y="2"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="6"/>
+                  <a:pt x="21" y="11"/>
+                  <a:pt x="23" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="24" y="17"/>
+                  <a:pt x="24" y="18"/>
+                  <a:pt x="23" y="20"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="21"/>
+                  <a:pt x="20" y="22"/>
+                  <a:pt x="19" y="23"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="23"/>
+                  <a:pt x="19" y="24"/>
+                  <a:pt x="19" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="26"/>
+                  <a:pt x="20" y="28"/>
+                  <a:pt x="21" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="31"/>
+                  <a:pt x="24" y="33"/>
+                  <a:pt x="25" y="35"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="31" y="41"/>
+                  <a:pt x="34" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="44"/>
+                  <a:pt x="37" y="45"/>
+                  <a:pt x="39" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="41" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="43"/>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="44" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="40"/>
+                  <a:pt x="48" y="39"/>
+                  <a:pt x="50" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="54" y="43"/>
+                  <a:pt x="58" y="45"/>
+                  <a:pt x="62" y="48"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="48"/>
+                  <a:pt x="64" y="49"/>
+                  <a:pt x="64" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64" y="51"/>
+                  <a:pt x="64" y="52"/>
+                  <a:pt x="63" y="52"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="60" y="56"/>
+                  <a:pt x="57" y="59"/>
+                  <a:pt x="54" y="61"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="62"/>
+                  <a:pt x="52" y="63"/>
+                  <a:pt x="50" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="63"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="63"/>
+                  <a:pt x="45" y="63"/>
+                  <a:pt x="43" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="62"/>
+                  <a:pt x="37" y="61"/>
+                  <a:pt x="35" y="60"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="58"/>
+                  <a:pt x="29" y="56"/>
+                  <a:pt x="26" y="54"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="53"/>
+                  <a:pt x="23" y="52"/>
+                  <a:pt x="21" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="49"/>
+                  <a:pt x="18" y="47"/>
+                  <a:pt x="16" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="41"/>
+                  <a:pt x="8" y="37"/>
+                  <a:pt x="6" y="32"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="3" y="28"/>
+                  <a:pt x="1" y="23"/>
+                  <a:pt x="1" y="19"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="18"/>
+                  <a:pt x="0" y="17"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="14"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="13"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Freeform 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="249"/>
+            <a:ext cx="0" cy="239"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Freeform 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="272" y="269"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 1 w 1"/>
+              <a:gd name="T3" fmla="*/ 1 h 1"/>
+              <a:gd name="T4" fmla="*/ 0 w 1"/>
+              <a:gd name="T5" fmla="*/ 1 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1" h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="1"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="1" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Freeform 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="250"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>122531</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
@@ -4944,7 +6981,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6974,7 +9011,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -7322,9 +9359,9 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7340,40 +9377,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -8506,40 +10543,40 @@
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="41">
+      <c r="A52" s="42">
         <v>8801717436223</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="35" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="36"/>
-      <c r="E52" s="36"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="34" t="s">
+      <c r="D52" s="37"/>
+      <c r="E52" s="37"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="34"/>
+      <c r="H52" s="35"/>
     </row>
     <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="43"/>
-      <c r="B53" s="44"/>
-      <c r="C53" s="38"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="40"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="34"/>
+      <c r="A53" s="44"/>
+      <c r="B53" s="45"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="33"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="34"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="34"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -8560,6 +10597,785 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="22.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="29" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>3</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="31">
+        <v>1060</v>
+      </c>
+      <c r="D5" s="31">
+        <v>1140</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>6</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1160</v>
+      </c>
+      <c r="D6" s="31">
+        <v>1250</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>7</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1290</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="19"/>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>8</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1150</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>9</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1460</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1570</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="19"/>
+    </row>
+    <row r="10" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>10</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1130</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1199</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>11</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1095</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1170</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="19"/>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>13</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>14</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1270</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>15</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1220</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19"/>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>16</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1360</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>17</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1280</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>18</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1430</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>20</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1499</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>21</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1440</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1540</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>22</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1240</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>1</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D23" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>2</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="7">
+        <v>7240</v>
+      </c>
+      <c r="D24" s="7">
+        <v>7790</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>13</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="31">
+        <v>7430</v>
+      </c>
+      <c r="D25" s="31">
+        <v>7990</v>
+      </c>
+      <c r="E25" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="33" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>16</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="7">
+        <v>9300</v>
+      </c>
+      <c r="D26" s="7">
+        <v>9790</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>17</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="7">
+        <v>10130</v>
+      </c>
+      <c r="D27" s="7">
+        <v>10890</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="7">
+        <v>7980</v>
+      </c>
+      <c r="D28" s="7">
+        <v>8590</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>19</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D29" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>20</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="24">
+        <v>10230</v>
+      </c>
+      <c r="D30" s="24">
+        <v>10990</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>21</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D31" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>22</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="42">
+        <v>8801717436223</v>
+      </c>
+      <c r="B33" s="43"/>
+      <c r="C33" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="H33" s="35"/>
+    </row>
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A35:H35"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="G33:H34"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0.7" top="0.75" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8796,7 +11612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H31"/>
   <sheetViews>
@@ -8817,40 +11633,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9457,40 +12273,40 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="49">
         <v>8801717436223</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="50"/>
+      <c r="C29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="34" t="s">
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="35"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -9507,7 +12323,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -9528,40 +12344,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10116,40 +12932,40 @@
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="49">
         <v>8801717436223</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="50"/>
+      <c r="C27" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="34" t="s">
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="35"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
   </sheetData>
   <sortState ref="B5:K51">
@@ -10169,7 +12985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
@@ -10187,28 +13003,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="145">
   <si>
     <t>Model Name</t>
   </si>
@@ -471,10 +471,13 @@
     <t>L135</t>
   </si>
   <si>
-    <t>Last Updated on: 04/07/2021</t>
-  </si>
-  <si>
     <t>Last Updated on: 05/07/2021</t>
+  </si>
+  <si>
+    <t>New Price update 08-07-2021</t>
+  </si>
+  <si>
+    <t>Last Updated on: 11/07/2021</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,6 +802,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9359,9 +9365,9 @@
   </sheetPr>
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M10" sqref="M9:M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9377,40 +9383,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9544,25 +9550,27 @@
       <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7">
-        <v>1060</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1140</v>
-      </c>
-      <c r="E9" s="19" t="s">
+      <c r="C9" s="31">
+        <v>1150</v>
+      </c>
+      <c r="D9" s="31">
+        <v>1240</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="19" t="s">
+      <c r="G9" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="19"/>
+      <c r="H9" s="34" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
@@ -10543,40 +10551,40 @@
       <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="42">
+      <c r="A52" s="43">
         <v>8801717436223</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="36" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="37"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="38"/>
-      <c r="G52" s="35" t="s">
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="39"/>
+      <c r="G52" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="35"/>
+      <c r="H52" s="36"/>
     </row>
     <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="44"/>
-      <c r="B53" s="45"/>
-      <c r="C53" s="39"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="40"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
+      <c r="A53" s="45"/>
+      <c r="B53" s="46"/>
+      <c r="C53" s="40"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="36"/>
+      <c r="H53" s="36"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34"/>
-      <c r="B54" s="34"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="34"/>
-      <c r="H54" s="34"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10602,8 +10610,8 @@
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10620,40 +10628,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11322,40 +11330,40 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
+      <c r="A33" s="43">
         <v>8801717436223</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="36" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="37"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="35" t="s">
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11633,40 +11641,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12273,40 +12281,40 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="49">
+      <c r="A29" s="50">
         <v>8801717436223</v>
       </c>
-      <c r="B29" s="50"/>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="51"/>
+      <c r="C29" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="35" t="s">
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12344,40 +12352,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12932,40 +12940,40 @@
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="49">
+      <c r="A27" s="50">
         <v>8801717436223</v>
       </c>
-      <c r="B27" s="50"/>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="51"/>
+      <c r="C27" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="35" t="s">
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
     </row>
   </sheetData>
   <sortState ref="B5:K51">
@@ -13003,28 +13011,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="148">
   <si>
     <t>Model Name</t>
   </si>
@@ -477,7 +477,16 @@
     <t>New Price update 08-07-2021</t>
   </si>
   <si>
-    <t>Last Updated on: 11/07/2021</t>
+    <t>V105(1GB+8GB)</t>
+  </si>
+  <si>
+    <t>2200mAh</t>
+  </si>
+  <si>
+    <t>L25i</t>
+  </si>
+  <si>
+    <t>Last Updated on: 13/07/2021</t>
   </si>
 </sst>
 </file>
@@ -717,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -789,9 +798,6 @@
     <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,9 +808,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -903,13 +906,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>84431</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>31599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>755586</xdr:colOff>
-      <xdr:row>52</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>124436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -927,8 +930,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="84431" y="11690199"/>
-          <a:ext cx="5147905" cy="302387"/>
+          <a:off x="84431" y="12147399"/>
+          <a:ext cx="5366980" cy="302387"/>
           <a:chOff x="242" y="249"/>
           <a:chExt cx="354" cy="300"/>
         </a:xfrm>
@@ -9363,18 +9366,19 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H54"/>
+  <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M10" sqref="M9:M10"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="17" customWidth="1"/>
     <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.140625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
@@ -9383,40 +9387,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9472,25 +9476,25 @@
       <c r="A6" s="19">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="6">
         <v>1060</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="6">
         <v>1140</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="E6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="27" t="s">
+      <c r="G6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="27" t="s">
+      <c r="H6" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9498,25 +9502,25 @@
       <c r="A7" s="19">
         <v>3</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="7">
         <v>1060</v>
       </c>
-      <c r="D7" s="31">
+      <c r="D7" s="7">
         <v>1140</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="27" t="s">
+      <c r="G7" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9524,25 +9528,25 @@
       <c r="A8" s="19">
         <v>4</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="7">
         <v>1070</v>
       </c>
-      <c r="D8" s="31">
+      <c r="D8" s="7">
         <v>1150</v>
       </c>
-      <c r="E8" s="27" t="s">
+      <c r="E8" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="27" t="s">
+      <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="27" t="s">
+      <c r="H8" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9550,25 +9554,25 @@
       <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="7">
         <v>1150</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D9" s="7">
         <v>1240</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="34" t="s">
+      <c r="H9" s="19" t="s">
         <v>143</v>
       </c>
     </row>
@@ -9576,25 +9580,25 @@
       <c r="A10" s="19">
         <v>6</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="7">
         <v>1160</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="7">
         <v>1250</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="27" t="s">
+      <c r="H10" s="19" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9651,7 +9655,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="C13" s="7">
         <v>1460</v>
@@ -9742,42 +9746,42 @@
       </c>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E17" s="19" t="s">
+      <c r="B17" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1030</v>
+      </c>
+      <c r="D17" s="30">
+        <v>1120</v>
+      </c>
+      <c r="E17" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="19"/>
+      <c r="H17" s="32"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="7">
-        <v>1270</v>
+        <v>1210</v>
       </c>
       <c r="D18" s="7">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>33</v>
@@ -9795,13 +9799,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="C19" s="7">
-        <v>1220</v>
+        <v>1270</v>
       </c>
       <c r="D19" s="7">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>33</v>
@@ -9819,13 +9823,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C20" s="7">
-        <v>1360</v>
+        <v>1220</v>
       </c>
       <c r="D20" s="7">
-        <v>1440</v>
+        <v>1299</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>33</v>
@@ -9843,19 +9847,19 @@
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>1280</v>
+        <v>1360</v>
       </c>
       <c r="D21" s="7">
-        <v>1370</v>
+        <v>1440</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G21" s="19" t="s">
         <v>28</v>
@@ -9867,19 +9871,19 @@
         <v>18</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1430</v>
+        <v>141</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1280</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1370</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>28</v>
@@ -9891,69 +9895,69 @@
         <v>19</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="7">
+        <v>72</v>
+      </c>
+      <c r="C23" s="6">
         <v>1340</v>
       </c>
-      <c r="D23" s="7">
-        <v>1450</v>
+      <c r="D23" s="6">
+        <v>1430</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="H23" s="19"/>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>20</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C24" s="7">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="D24" s="7">
-        <v>1499</v>
+        <v>1450</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="19"/>
+      <c r="H24" s="19" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="C25" s="7">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="D25" s="7">
-        <v>1540</v>
+        <v>1499</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>28</v>
@@ -9965,19 +9969,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C26" s="7">
-        <v>1240</v>
+        <v>1440</v>
       </c>
       <c r="D26" s="7">
-        <v>1320</v>
+        <v>1540</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>28</v>
@@ -9989,10 +9993,10 @@
         <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="7">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="D27" s="7">
         <v>1320</v>
@@ -10001,21 +10005,35 @@
         <v>50</v>
       </c>
       <c r="F27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>24</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1220</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G28" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="19"/>
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10029,121 +10047,107 @@
       <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>1</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D30" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C31" s="7">
-        <v>7240</v>
+        <v>7430</v>
       </c>
       <c r="D31" s="7">
-        <v>7790</v>
+        <v>7990</v>
       </c>
       <c r="E31" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G31" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H31" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="H31" s="19" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C32" s="7">
-        <v>4050</v>
+        <v>7240</v>
       </c>
       <c r="D32" s="7">
-        <v>4290</v>
+        <v>7790</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" s="7">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="D33" s="7">
-        <v>4390</v>
+        <v>4290</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C34" s="7">
-        <v>5370</v>
+        <v>4150</v>
       </c>
       <c r="D34" s="7">
-        <v>5699</v>
+        <v>4390</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G34" s="19" t="s">
         <v>58</v>
@@ -10152,290 +10156,290 @@
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C35" s="7">
-        <v>5750</v>
+        <v>5370</v>
       </c>
       <c r="D35" s="7">
-        <v>6190</v>
+        <v>5699</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H35" s="19" t="s">
-        <v>101</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H35" s="19"/>
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C36" s="7">
-        <v>5940</v>
+        <v>5750</v>
       </c>
       <c r="D36" s="7">
-        <v>6390</v>
+        <v>6190</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H36" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="H36" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C37" s="7">
-        <v>6470</v>
+        <v>5940</v>
       </c>
       <c r="D37" s="7">
-        <v>6990</v>
+        <v>6390</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H37" s="19"/>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C38" s="7">
-        <v>6570</v>
+        <v>6470</v>
       </c>
       <c r="D38" s="7">
         <v>6990</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
-        <v>10</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3640</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3890</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H39" s="19"/>
+        <v>9</v>
+      </c>
+      <c r="B39" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C39" s="30">
+        <v>6570</v>
+      </c>
+      <c r="D39" s="30">
+        <v>6990</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="F39" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="32"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="C40" s="7">
-        <v>7350</v>
+        <v>3640</v>
       </c>
       <c r="D40" s="7">
-        <v>7990</v>
+        <v>3890</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
-        <v>12</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="7">
-        <v>7790</v>
-      </c>
-      <c r="D41" s="7">
-        <v>8290</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H41" s="19"/>
+        <v>11</v>
+      </c>
+      <c r="B41" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C41" s="30">
+        <v>3890</v>
+      </c>
+      <c r="D41" s="30">
+        <v>4190</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="32"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>13</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="31">
-        <v>7430</v>
-      </c>
-      <c r="D42" s="31">
+        <v>12</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C42" s="7">
+        <v>7350</v>
+      </c>
+      <c r="D42" s="7">
         <v>7990</v>
       </c>
-      <c r="E42" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="H42" s="32" t="s">
-        <v>138</v>
-      </c>
+      <c r="E42" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C43" s="7">
-        <v>7800</v>
+        <v>7790</v>
       </c>
       <c r="D43" s="7">
-        <v>8390</v>
+        <v>8290</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F43" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C44" s="7">
-        <v>7980</v>
+        <v>7430</v>
       </c>
       <c r="D44" s="7">
-        <v>8490</v>
+        <v>7990</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H44" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="H44" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C45" s="7">
-        <v>9300</v>
+        <v>7800</v>
       </c>
       <c r="D45" s="7">
-        <v>9790</v>
+        <v>8390</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H45" s="19"/>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C46" s="7">
-        <v>10130</v>
+        <v>7980</v>
       </c>
       <c r="D46" s="7">
-        <v>10890</v>
+        <v>8490</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G46" s="19" t="s">
         <v>64</v>
@@ -10444,16 +10448,16 @@
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C47" s="7">
-        <v>7980</v>
+        <v>9300</v>
       </c>
       <c r="D47" s="7">
-        <v>8590</v>
+        <v>9790</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>55</v>
@@ -10462,64 +10466,64 @@
         <v>56</v>
       </c>
       <c r="G47" s="19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H47" s="19"/>
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C48" s="7">
-        <v>9290</v>
+        <v>10130</v>
       </c>
       <c r="D48" s="7">
-        <v>9990</v>
+        <v>10890</v>
       </c>
       <c r="E48" s="19" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G48" s="19" t="s">
-        <v>136</v>
+        <v>64</v>
       </c>
       <c r="H48" s="19"/>
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
-        <v>20</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C49" s="24">
-        <v>10230</v>
-      </c>
-      <c r="D49" s="24">
-        <v>10990</v>
-      </c>
-      <c r="E49" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G49" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="25"/>
+        <v>19</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="7">
+        <v>7980</v>
+      </c>
+      <c r="D49" s="7">
+        <v>8590</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="7">
         <v>9290</v>
@@ -10528,77 +10532,125 @@
         <v>9990</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>78</v>
+        <v>137</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
+        <v>21</v>
+      </c>
+      <c r="B51" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C51" s="24">
+        <v>10230</v>
+      </c>
+      <c r="D51" s="24">
+        <v>10990</v>
+      </c>
+      <c r="E51" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="25"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
         <v>22</v>
       </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="7"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="43">
+      <c r="B52" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D52" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E52" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" s="19"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>23</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="41">
         <v>8801717436223</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="37" t="s">
+      <c r="B54" s="42"/>
+      <c r="C54" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="36" t="s">
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H52" s="36"/>
-    </row>
-    <row r="53" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="45"/>
-      <c r="B53" s="46"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="41"/>
-      <c r="F53" s="42"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
+      <c r="H54" s="34"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="43"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A54:H54"/>
-    <mergeCell ref="G52:H53"/>
-    <mergeCell ref="C52:F53"/>
-    <mergeCell ref="A52:B53"/>
+    <mergeCell ref="A56:H56"/>
+    <mergeCell ref="G54:H55"/>
+    <mergeCell ref="C54:F55"/>
+    <mergeCell ref="A54:B55"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="82" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -10628,40 +10680,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -10693,25 +10745,25 @@
       <c r="A5" s="19">
         <v>3</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="30">
         <v>1060</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="30">
         <v>1140</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="31" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="31" t="s">
         <v>135</v>
       </c>
     </row>
@@ -10719,25 +10771,25 @@
       <c r="A6" s="19">
         <v>6</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="30">
         <v>1160</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="30">
         <v>1250</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="31" t="s">
         <v>135</v>
       </c>
     </row>
@@ -11151,25 +11203,25 @@
       <c r="A25" s="19">
         <v>13</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="C25" s="31">
+      <c r="C25" s="30">
         <v>7430</v>
       </c>
-      <c r="D25" s="31">
+      <c r="D25" s="30">
         <v>7990</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="31" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11330,40 +11382,40 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="43">
+      <c r="A33" s="41">
         <v>8801717436223</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="37" t="s">
+      <c r="B33" s="42"/>
+      <c r="C33" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="36" t="s">
+      <c r="D33" s="36"/>
+      <c r="E33" s="36"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="34"/>
     </row>
     <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="36"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11396,26 +11448,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29">
+      <c r="B1" s="28">
         <v>1060</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="30">
         <v>1060</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="30">
         <v>1160</v>
       </c>
     </row>
@@ -11641,40 +11693,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12281,40 +12333,40 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="50">
+      <c r="A29" s="48">
         <v>8801717436223</v>
       </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="37" t="s">
+      <c r="B29" s="49"/>
+      <c r="C29" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="36" t="s">
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="36"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12352,40 +12404,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12940,40 +12992,40 @@
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="50">
+      <c r="A27" s="48">
         <v>8801717436223</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="37" t="s">
+      <c r="B27" s="49"/>
+      <c r="C27" s="35" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="36" t="s">
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="36"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="36"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
     </row>
   </sheetData>
   <sortState ref="B5:K51">
@@ -13011,28 +13063,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="52" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="53" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -486,7 +486,7 @@
     <t>L25i</t>
   </si>
   <si>
-    <t>Last Updated on: 13/07/2021</t>
+    <t>Last Updated on: 15/07/2021</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,9 +808,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9370,7 +9367,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9387,40 +9384,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -9750,25 +9747,25 @@
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="7">
         <v>1030</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="7">
         <v>1120</v>
       </c>
-      <c r="E17" s="32" t="s">
+      <c r="E17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="F17" s="29" t="s">
+      <c r="F17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="32" t="s">
+      <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="32"/>
+      <c r="H17" s="19"/>
     </row>
     <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -10256,25 +10253,25 @@
       <c r="A39" s="19">
         <v>9</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C39" s="7">
         <v>6570</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D39" s="7">
         <v>6990</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E39" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="F39" s="29" t="s">
+      <c r="F39" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G39" s="32" t="s">
+      <c r="G39" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="H39" s="32"/>
+      <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
@@ -10304,25 +10301,25 @@
       <c r="A41" s="19">
         <v>11</v>
       </c>
-      <c r="B41" s="27" t="s">
+      <c r="B41" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C41" s="7">
         <v>3890</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D41" s="7">
         <v>4190</v>
       </c>
-      <c r="E41" s="32" t="s">
+      <c r="E41" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F41" s="29" t="s">
+      <c r="F41" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="G41" s="32" t="s">
+      <c r="G41" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="H41" s="32"/>
+      <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
@@ -10603,40 +10600,40 @@
       <c r="H53" s="19"/>
     </row>
     <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="41">
+      <c r="A54" s="40">
         <v>8801717436223</v>
       </c>
-      <c r="B54" s="42"/>
-      <c r="C54" s="35" t="s">
+      <c r="B54" s="41"/>
+      <c r="C54" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="34" t="s">
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H54" s="34"/>
+      <c r="H54" s="33"/>
     </row>
     <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="43"/>
-      <c r="B55" s="44"/>
-      <c r="C55" s="38"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="34"/>
-      <c r="H55" s="34"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="43"/>
+      <c r="C55" s="37"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="33"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="33"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="32"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="32"/>
+      <c r="H56" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10680,40 +10677,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11382,40 +11379,40 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="41">
+      <c r="A33" s="40">
         <v>8801717436223</v>
       </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="41"/>
+      <c r="C33" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="36"/>
-      <c r="E33" s="36"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="34" t="s">
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="34"/>
+      <c r="H33" s="33"/>
     </row>
     <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="43"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="33"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -11693,40 +11690,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12333,40 +12330,40 @@
       <c r="H28" s="19"/>
     </row>
     <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48">
+      <c r="A29" s="47">
         <v>8801717436223</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="35" t="s">
+      <c r="B29" s="48"/>
+      <c r="C29" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="34" t="s">
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="34"/>
+      <c r="H29" s="33"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
+      <c r="H31" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -12404,40 +12401,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12992,40 +12989,40 @@
       <c r="H26" s="19"/>
     </row>
     <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48">
+      <c r="A27" s="47">
         <v>8801717436223</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="35" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="34" t="s">
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="34"/>
+      <c r="H27" s="33"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
+      <c r="A28" s="49"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
     </row>
   </sheetData>
   <sortState ref="B5:K51">
@@ -13063,28 +13060,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="51" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="53" t="s">
         <v>109</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="151">
   <si>
     <t>Model Name</t>
   </si>
@@ -486,7 +486,16 @@
     <t>L25i</t>
   </si>
   <si>
-    <t>Last Updated on: 15/07/2021</t>
+    <t>D48</t>
+  </si>
+  <si>
+    <t>New Model Launch 17-07-2021</t>
+  </si>
+  <si>
+    <t>B69</t>
+  </si>
+  <si>
+    <t>Last Updated on: 17/07/2021</t>
   </si>
 </sst>
 </file>
@@ -903,13 +912,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>84431</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>31599</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>755586</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>124436</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -927,7 +936,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="84431" y="12147399"/>
+          <a:off x="84431" y="12375999"/>
           <a:ext cx="5366980" cy="302387"/>
           <a:chOff x="242" y="249"/>
           <a:chExt cx="354" cy="300"/>
@@ -9363,11 +9372,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H56"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J47" sqref="J47"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9409,7 +9418,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B3" s="46"/>
       <c r="C3" s="46"/>
@@ -9552,25 +9561,25 @@
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="C9" s="7">
-        <v>1150</v>
+        <v>1020</v>
       </c>
       <c r="D9" s="7">
-        <v>1240</v>
+        <v>1099</v>
       </c>
       <c r="E9" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G9" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H9" s="19" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9578,25 +9587,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C10" s="7">
-        <v>1160</v>
+        <v>1150</v>
       </c>
       <c r="D10" s="7">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="E10" s="19" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H10" s="19" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -9604,43 +9613,45 @@
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="7">
-        <v>1210</v>
+        <v>1160</v>
       </c>
       <c r="D11" s="7">
-        <v>1290</v>
+        <v>1250</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G11" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="19"/>
+      <c r="H11" s="19" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="7">
-        <v>1150</v>
+        <v>1210</v>
       </c>
       <c r="D12" s="7">
-        <v>1240</v>
+        <v>1290</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G12" s="19" t="s">
         <v>28</v>
@@ -9652,61 +9663,63 @@
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>139</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1460</v>
+        <v>1150</v>
       </c>
       <c r="D13" s="7">
-        <v>1570</v>
+        <v>1240</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C14" s="7">
-        <v>1130</v>
+        <v>1250</v>
       </c>
       <c r="D14" s="7">
-        <v>1199</v>
+        <v>1350</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G14" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="19"/>
+      <c r="H14" s="19" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="C15" s="7">
-        <v>1095</v>
+        <v>1460</v>
       </c>
       <c r="D15" s="7">
-        <v>1170</v>
+        <v>1570</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>33</v>
@@ -9715,7 +9728,7 @@
         <v>29</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="H15" s="19"/>
     </row>
@@ -9724,61 +9737,61 @@
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C16" s="7">
-        <v>1040</v>
+        <v>1130</v>
       </c>
       <c r="D16" s="7">
-        <v>1120</v>
+        <v>1199</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="H16" s="19"/>
     </row>
-    <row r="17" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>13</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
       <c r="C17" s="7">
-        <v>1030</v>
+        <v>1095</v>
       </c>
       <c r="D17" s="7">
-        <v>1120</v>
+        <v>1170</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G17" s="19" t="s">
         <v>28</v>
       </c>
       <c r="H17" s="19"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="C18" s="7">
-        <v>1210</v>
+        <v>1030</v>
       </c>
       <c r="D18" s="7">
-        <v>1299</v>
+        <v>1120</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>33</v>
@@ -9793,16 +9806,16 @@
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>16</v>
-      </c>
       <c r="C19" s="7">
-        <v>1270</v>
+        <v>1210</v>
       </c>
       <c r="D19" s="7">
-        <v>1350</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>33</v>
@@ -9817,16 +9830,16 @@
     </row>
     <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
+        <v>17</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>74</v>
-      </c>
       <c r="C20" s="7">
-        <v>1220</v>
+        <v>1270</v>
       </c>
       <c r="D20" s="7">
-        <v>1299</v>
+        <v>1350</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>33</v>
@@ -9841,16 +9854,16 @@
     </row>
     <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="C21" s="7">
-        <v>1360</v>
+        <v>1220</v>
       </c>
       <c r="D21" s="7">
-        <v>1440</v>
+        <v>1299</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>33</v>
@@ -9865,22 +9878,22 @@
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7">
-        <v>1280</v>
+        <v>1360</v>
       </c>
       <c r="D22" s="7">
-        <v>1370</v>
+        <v>1440</v>
       </c>
       <c r="E22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G22" s="19" t="s">
         <v>28</v>
@@ -9889,22 +9902,22 @@
     </row>
     <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D23" s="6">
-        <v>1430</v>
+        <v>141</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1280</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1370</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G23" s="19" t="s">
         <v>28</v>
@@ -9913,72 +9926,72 @@
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24" s="7">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6">
         <v>1340</v>
       </c>
-      <c r="D24" s="7">
-        <v>1450</v>
+      <c r="D24" s="6">
+        <v>1430</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>103</v>
-      </c>
+      <c r="H24" s="19"/>
     </row>
     <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C25" s="7">
-        <v>1400</v>
+        <v>1340</v>
       </c>
       <c r="D25" s="7">
-        <v>1499</v>
+        <v>1450</v>
       </c>
       <c r="E25" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="19"/>
+      <c r="H25" s="19" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="C26" s="7">
-        <v>1440</v>
+        <v>1400</v>
       </c>
       <c r="D26" s="7">
-        <v>1540</v>
+        <v>1499</v>
       </c>
       <c r="E26" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>28</v>
@@ -9987,22 +10000,22 @@
     </row>
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="19">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C27" s="7">
-        <v>1240</v>
+        <v>1440</v>
       </c>
       <c r="D27" s="7">
-        <v>1320</v>
+        <v>1540</v>
       </c>
       <c r="E27" s="19" t="s">
         <v>50</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>28</v>
@@ -10011,13 +10024,13 @@
     </row>
     <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="19">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="7">
-        <v>1220</v>
+        <v>1240</v>
       </c>
       <c r="D28" s="7">
         <v>1320</v>
@@ -10026,21 +10039,35 @@
         <v>50</v>
       </c>
       <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>26</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1220</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G29" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="19"/>
       <c r="H29" s="19"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10054,121 +10081,107 @@
       <c r="H30" s="19"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>1</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C31" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D31" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="19" t="s">
-        <v>112</v>
-      </c>
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
     </row>
     <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C32" s="7">
-        <v>7240</v>
+        <v>7430</v>
       </c>
       <c r="D32" s="7">
-        <v>7790</v>
+        <v>7990</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="19"/>
+        <v>66</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C33" s="7">
-        <v>4050</v>
+        <v>7240</v>
       </c>
       <c r="D33" s="7">
-        <v>4290</v>
+        <v>7790</v>
       </c>
       <c r="E33" s="19" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="G33" s="19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H33" s="19"/>
     </row>
     <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C34" s="7">
-        <v>4150</v>
+        <v>4050</v>
       </c>
       <c r="D34" s="7">
-        <v>4390</v>
+        <v>4290</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H34" s="19"/>
     </row>
     <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C35" s="7">
-        <v>5370</v>
+        <v>4150</v>
       </c>
       <c r="D35" s="7">
-        <v>5699</v>
+        <v>4390</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="G35" s="19" t="s">
         <v>58</v>
@@ -10177,144 +10190,144 @@
     </row>
     <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C36" s="7">
-        <v>5750</v>
+        <v>5370</v>
       </c>
       <c r="D36" s="7">
-        <v>6190</v>
+        <v>5699</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="19" t="s">
-        <v>101</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="H36" s="19"/>
     </row>
     <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C37" s="7">
-        <v>5940</v>
+        <v>5750</v>
       </c>
       <c r="D37" s="7">
-        <v>6390</v>
+        <v>6190</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H37" s="19"/>
+        <v>68</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C38" s="7">
-        <v>6470</v>
+        <v>5940</v>
       </c>
       <c r="D38" s="7">
-        <v>6990</v>
+        <v>6390</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H38" s="19"/>
     </row>
     <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C39" s="7">
-        <v>6570</v>
+        <v>6470</v>
       </c>
       <c r="D39" s="7">
         <v>6990</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H39" s="19"/>
     </row>
     <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C40" s="7">
-        <v>3640</v>
+        <v>6570</v>
       </c>
       <c r="D40" s="7">
-        <v>3890</v>
+        <v>6990</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H40" s="19"/>
     </row>
     <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C41" s="7">
+        <v>3640</v>
+      </c>
+      <c r="D41" s="7">
         <v>3890</v>
-      </c>
-      <c r="D41" s="7">
-        <v>4190</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>53</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>145</v>
+        <v>39</v>
       </c>
       <c r="G41" s="19" t="s">
         <v>62</v>
@@ -10323,144 +10336,144 @@
     </row>
     <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="C42" s="7">
-        <v>7350</v>
+        <v>3890</v>
       </c>
       <c r="D42" s="7">
-        <v>7990</v>
+        <v>4190</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>49</v>
+        <v>145</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H42" s="19"/>
     </row>
     <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C43" s="7">
-        <v>7790</v>
+        <v>7350</v>
       </c>
       <c r="D43" s="7">
-        <v>8290</v>
+        <v>7990</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H43" s="19"/>
     </row>
     <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C44" s="7">
-        <v>7430</v>
+        <v>7790</v>
       </c>
       <c r="D44" s="7">
-        <v>7990</v>
+        <v>8290</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H44" s="19" t="s">
-        <v>138</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H44" s="19"/>
     </row>
     <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C45" s="7">
-        <v>7800</v>
+        <v>7430</v>
       </c>
       <c r="D45" s="7">
-        <v>8390</v>
+        <v>7990</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H45" s="19"/>
+        <v>75</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C46" s="7">
-        <v>7980</v>
+        <v>7800</v>
       </c>
       <c r="D46" s="7">
-        <v>8490</v>
+        <v>8390</v>
       </c>
       <c r="E46" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>52</v>
       </c>
       <c r="G46" s="19" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H46" s="19"/>
     </row>
     <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C47" s="7">
-        <v>9300</v>
+        <v>7980</v>
       </c>
       <c r="D47" s="7">
-        <v>9790</v>
+        <v>8490</v>
       </c>
       <c r="E47" s="19" t="s">
         <v>55</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>64</v>
@@ -10469,16 +10482,16 @@
     </row>
     <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B48" s="20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C48" s="7">
-        <v>10130</v>
+        <v>9300</v>
       </c>
       <c r="D48" s="7">
-        <v>10890</v>
+        <v>9790</v>
       </c>
       <c r="E48" s="19" t="s">
         <v>55</v>
@@ -10493,16 +10506,16 @@
     </row>
     <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C49" s="7">
-        <v>7980</v>
+        <v>10130</v>
       </c>
       <c r="D49" s="7">
-        <v>8590</v>
+        <v>10890</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>55</v>
@@ -10511,143 +10524,167 @@
         <v>56</v>
       </c>
       <c r="G49" s="19" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="H49" s="19"/>
     </row>
     <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="19">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C50" s="7">
-        <v>9290</v>
+        <v>7980</v>
       </c>
       <c r="D50" s="7">
-        <v>9990</v>
+        <v>8590</v>
       </c>
       <c r="E50" s="19" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="G50" s="19" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="H50" s="19"/>
     </row>
     <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="19">
-        <v>21</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="24">
-        <v>10230</v>
-      </c>
-      <c r="D51" s="24">
-        <v>10990</v>
-      </c>
-      <c r="E51" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F51" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D51" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G51" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H51" s="25"/>
+      <c r="G51" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="19"/>
     </row>
     <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="19">
-        <v>22</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C52" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D52" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E52" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H52" s="19"/>
+        <v>21</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="24">
+        <v>10230</v>
+      </c>
+      <c r="D52" s="24">
+        <v>10990</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="25"/>
     </row>
     <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="19">
+        <v>22</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D53" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
         <v>23</v>
       </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="5"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
+      <c r="B54" s="20"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="40">
         <v>8801717436223</v>
       </c>
-      <c r="B54" s="41"/>
-      <c r="C54" s="34" t="s">
+      <c r="B55" s="41"/>
+      <c r="C55" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="33" t="s">
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="36"/>
+      <c r="G55" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="H54" s="33"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="42"/>
-      <c r="B55" s="43"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="38"/>
-      <c r="E55" s="38"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="33"/>
       <c r="H55" s="33"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="32"/>
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="42"/>
+      <c r="B56" s="43"/>
+      <c r="C56" s="37"/>
+      <c r="D56" s="38"/>
+      <c r="E56" s="38"/>
+      <c r="F56" s="39"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A56:H56"/>
-    <mergeCell ref="G54:H55"/>
-    <mergeCell ref="C54:F55"/>
-    <mergeCell ref="A54:B55"/>
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="C55:F56"/>
+    <mergeCell ref="A55:B56"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A3:H3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="78" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Symphony" sheetId="3" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
+    <sheet name="Symphony" sheetId="3" r:id="rId3"/>
     <sheet name="Sym Barphony" sheetId="6" r:id="rId4"/>
     <sheet name="Sym Smartphone" sheetId="5" r:id="rId5"/>
     <sheet name="realme" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Symphony!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Symphony!$A$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -495,7 +495,7 @@
     <t>B69</t>
   </si>
   <si>
-    <t>Last Updated on: 17/07/2021</t>
+    <t>Last Updated on: 18/07/2021</t>
   </si>
 </sst>
 </file>
@@ -825,7 +825,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,25 +864,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -907,6 +907,2036 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>84431</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>738849</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>124436</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="84431" y="7346799"/>
+          <a:ext cx="5531218" cy="302387"/>
+          <a:chOff x="242" y="249"/>
+          <a:chExt cx="302" cy="300"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="3" name="Freeform 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="348" y="294"/>
+            <a:ext cx="11" cy="255"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 40 w 41"/>
+              <a:gd name="T1" fmla="*/ 19 h 66"/>
+              <a:gd name="T2" fmla="*/ 31 w 41"/>
+              <a:gd name="T3" fmla="*/ 5 h 66"/>
+              <a:gd name="T4" fmla="*/ 11 w 41"/>
+              <a:gd name="T5" fmla="*/ 4 h 66"/>
+              <a:gd name="T6" fmla="*/ 0 w 41"/>
+              <a:gd name="T7" fmla="*/ 22 h 66"/>
+              <a:gd name="T8" fmla="*/ 0 w 41"/>
+              <a:gd name="T9" fmla="*/ 25 h 66"/>
+              <a:gd name="T10" fmla="*/ 4 w 41"/>
+              <a:gd name="T11" fmla="*/ 38 h 66"/>
+              <a:gd name="T12" fmla="*/ 19 w 41"/>
+              <a:gd name="T13" fmla="*/ 65 h 66"/>
+              <a:gd name="T14" fmla="*/ 21 w 41"/>
+              <a:gd name="T15" fmla="*/ 65 h 66"/>
+              <a:gd name="T16" fmla="*/ 33 w 41"/>
+              <a:gd name="T17" fmla="*/ 43 h 66"/>
+              <a:gd name="T18" fmla="*/ 39 w 41"/>
+              <a:gd name="T19" fmla="*/ 29 h 66"/>
+              <a:gd name="T20" fmla="*/ 40 w 41"/>
+              <a:gd name="T21" fmla="*/ 19 h 66"/>
+              <a:gd name="T22" fmla="*/ 20 w 41"/>
+              <a:gd name="T23" fmla="*/ 32 h 66"/>
+              <a:gd name="T24" fmla="*/ 11 w 41"/>
+              <a:gd name="T25" fmla="*/ 22 h 66"/>
+              <a:gd name="T26" fmla="*/ 20 w 41"/>
+              <a:gd name="T27" fmla="*/ 13 h 66"/>
+              <a:gd name="T28" fmla="*/ 29 w 41"/>
+              <a:gd name="T29" fmla="*/ 22 h 66"/>
+              <a:gd name="T30" fmla="*/ 20 w 41"/>
+              <a:gd name="T31" fmla="*/ 32 h 66"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="41" h="66">
+                <a:moveTo>
+                  <a:pt x="40" y="19"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="13"/>
+                  <a:pt x="36" y="8"/>
+                  <a:pt x="31" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="1"/>
+                  <a:pt x="18" y="0"/>
+                  <a:pt x="11" y="4"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="7"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="23"/>
+                  <a:pt x="0" y="24"/>
+                  <a:pt x="0" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="29"/>
+                  <a:pt x="2" y="34"/>
+                  <a:pt x="4" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="48"/>
+                  <a:pt x="13" y="57"/>
+                  <a:pt x="19" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="20" y="66"/>
+                  <a:pt x="21" y="65"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="58"/>
+                  <a:pt x="30" y="51"/>
+                  <a:pt x="33" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="39"/>
+                  <a:pt x="38" y="34"/>
+                  <a:pt x="39" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="26"/>
+                  <a:pt x="41" y="22"/>
+                  <a:pt x="40" y="19"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="20" y="32"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="32"/>
+                  <a:pt x="11" y="27"/>
+                  <a:pt x="11" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="17"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="20" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="29" y="17"/>
+                  <a:pt x="29" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="27"/>
+                  <a:pt x="25" y="32"/>
+                  <a:pt x="20" y="32"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Freeform 22">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noEditPoints="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="531" y="311"/>
+            <a:ext cx="13" cy="229"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 26 w 53"/>
+              <a:gd name="T1" fmla="*/ 53 h 53"/>
+              <a:gd name="T2" fmla="*/ 25 w 53"/>
+              <a:gd name="T3" fmla="*/ 5 h 53"/>
+              <a:gd name="T4" fmla="*/ 25 w 53"/>
+              <a:gd name="T5" fmla="*/ 13 h 53"/>
+              <a:gd name="T6" fmla="*/ 18 w 53"/>
+              <a:gd name="T7" fmla="*/ 13 h 53"/>
+              <a:gd name="T8" fmla="*/ 25 w 53"/>
+              <a:gd name="T9" fmla="*/ 25 h 53"/>
+              <a:gd name="T10" fmla="*/ 15 w 53"/>
+              <a:gd name="T11" fmla="*/ 25 h 53"/>
+              <a:gd name="T12" fmla="*/ 25 w 53"/>
+              <a:gd name="T13" fmla="*/ 16 h 53"/>
+              <a:gd name="T14" fmla="*/ 10 w 53"/>
+              <a:gd name="T15" fmla="*/ 11 h 53"/>
+              <a:gd name="T16" fmla="*/ 21 w 53"/>
+              <a:gd name="T17" fmla="*/ 5 h 53"/>
+              <a:gd name="T18" fmla="*/ 15 w 53"/>
+              <a:gd name="T19" fmla="*/ 13 h 53"/>
+              <a:gd name="T20" fmla="*/ 8 w 53"/>
+              <a:gd name="T21" fmla="*/ 13 h 53"/>
+              <a:gd name="T22" fmla="*/ 6 w 53"/>
+              <a:gd name="T23" fmla="*/ 16 h 53"/>
+              <a:gd name="T24" fmla="*/ 14 w 53"/>
+              <a:gd name="T25" fmla="*/ 16 h 53"/>
+              <a:gd name="T26" fmla="*/ 12 w 53"/>
+              <a:gd name="T27" fmla="*/ 25 h 53"/>
+              <a:gd name="T28" fmla="*/ 4 w 53"/>
+              <a:gd name="T29" fmla="*/ 25 h 53"/>
+              <a:gd name="T30" fmla="*/ 4 w 53"/>
+              <a:gd name="T31" fmla="*/ 28 h 53"/>
+              <a:gd name="T32" fmla="*/ 12 w 53"/>
+              <a:gd name="T33" fmla="*/ 28 h 53"/>
+              <a:gd name="T34" fmla="*/ 14 w 53"/>
+              <a:gd name="T35" fmla="*/ 38 h 53"/>
+              <a:gd name="T36" fmla="*/ 21 w 53"/>
+              <a:gd name="T37" fmla="*/ 49 h 53"/>
+              <a:gd name="T38" fmla="*/ 8 w 53"/>
+              <a:gd name="T39" fmla="*/ 40 h 53"/>
+              <a:gd name="T40" fmla="*/ 15 w 53"/>
+              <a:gd name="T41" fmla="*/ 41 h 53"/>
+              <a:gd name="T42" fmla="*/ 25 w 53"/>
+              <a:gd name="T43" fmla="*/ 49 h 53"/>
+              <a:gd name="T44" fmla="*/ 18 w 53"/>
+              <a:gd name="T45" fmla="*/ 40 h 53"/>
+              <a:gd name="T46" fmla="*/ 25 w 53"/>
+              <a:gd name="T47" fmla="*/ 49 h 53"/>
+              <a:gd name="T48" fmla="*/ 17 w 53"/>
+              <a:gd name="T49" fmla="*/ 38 h 53"/>
+              <a:gd name="T50" fmla="*/ 15 w 53"/>
+              <a:gd name="T51" fmla="*/ 28 h 53"/>
+              <a:gd name="T52" fmla="*/ 25 w 53"/>
+              <a:gd name="T53" fmla="*/ 28 h 53"/>
+              <a:gd name="T54" fmla="*/ 46 w 53"/>
+              <a:gd name="T55" fmla="*/ 16 h 53"/>
+              <a:gd name="T56" fmla="*/ 45 w 53"/>
+              <a:gd name="T57" fmla="*/ 25 h 53"/>
+              <a:gd name="T58" fmla="*/ 38 w 53"/>
+              <a:gd name="T59" fmla="*/ 16 h 53"/>
+              <a:gd name="T60" fmla="*/ 32 w 53"/>
+              <a:gd name="T61" fmla="*/ 5 h 53"/>
+              <a:gd name="T62" fmla="*/ 44 w 53"/>
+              <a:gd name="T63" fmla="*/ 13 h 53"/>
+              <a:gd name="T64" fmla="*/ 38 w 53"/>
+              <a:gd name="T65" fmla="*/ 13 h 53"/>
+              <a:gd name="T66" fmla="*/ 32 w 53"/>
+              <a:gd name="T67" fmla="*/ 5 h 53"/>
+              <a:gd name="T68" fmla="*/ 32 w 53"/>
+              <a:gd name="T69" fmla="*/ 5 h 53"/>
+              <a:gd name="T70" fmla="*/ 29 w 53"/>
+              <a:gd name="T71" fmla="*/ 6 h 53"/>
+              <a:gd name="T72" fmla="*/ 28 w 53"/>
+              <a:gd name="T73" fmla="*/ 13 h 53"/>
+              <a:gd name="T74" fmla="*/ 28 w 53"/>
+              <a:gd name="T75" fmla="*/ 16 h 53"/>
+              <a:gd name="T76" fmla="*/ 36 w 53"/>
+              <a:gd name="T77" fmla="*/ 16 h 53"/>
+              <a:gd name="T78" fmla="*/ 33 w 53"/>
+              <a:gd name="T79" fmla="*/ 25 h 53"/>
+              <a:gd name="T80" fmla="*/ 28 w 53"/>
+              <a:gd name="T81" fmla="*/ 16 h 53"/>
+              <a:gd name="T82" fmla="*/ 33 w 53"/>
+              <a:gd name="T83" fmla="*/ 28 h 53"/>
+              <a:gd name="T84" fmla="*/ 36 w 53"/>
+              <a:gd name="T85" fmla="*/ 38 h 53"/>
+              <a:gd name="T86" fmla="*/ 28 w 53"/>
+              <a:gd name="T87" fmla="*/ 38 h 53"/>
+              <a:gd name="T88" fmla="*/ 28 w 53"/>
+              <a:gd name="T89" fmla="*/ 49 h 53"/>
+              <a:gd name="T90" fmla="*/ 28 w 53"/>
+              <a:gd name="T91" fmla="*/ 41 h 53"/>
+              <a:gd name="T92" fmla="*/ 34 w 53"/>
+              <a:gd name="T93" fmla="*/ 40 h 53"/>
+              <a:gd name="T94" fmla="*/ 32 w 53"/>
+              <a:gd name="T95" fmla="*/ 49 h 53"/>
+              <a:gd name="T96" fmla="*/ 38 w 53"/>
+              <a:gd name="T97" fmla="*/ 40 h 53"/>
+              <a:gd name="T98" fmla="*/ 39 w 53"/>
+              <a:gd name="T99" fmla="*/ 46 h 53"/>
+              <a:gd name="T100" fmla="*/ 39 w 53"/>
+              <a:gd name="T101" fmla="*/ 38 h 53"/>
+              <a:gd name="T102" fmla="*/ 40 w 53"/>
+              <a:gd name="T103" fmla="*/ 28 h 53"/>
+              <a:gd name="T104" fmla="*/ 49 w 53"/>
+              <a:gd name="T105" fmla="*/ 28 h 53"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T80" y="T81"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T82" y="T83"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T84" y="T85"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T86" y="T87"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T88" y="T89"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T90" y="T91"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T92" y="T93"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T94" y="T95"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T96" y="T97"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T98" y="T99"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T100" y="T101"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T102" y="T103"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T104" y="T105"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="53" h="53">
+                <a:moveTo>
+                  <a:pt x="26" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="0" y="12"/>
+                  <a:pt x="0" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="41"/>
+                  <a:pt x="12" y="53"/>
+                  <a:pt x="26" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="53"/>
+                  <a:pt x="53" y="41"/>
+                  <a:pt x="53" y="27"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="12"/>
+                  <a:pt x="41" y="0"/>
+                  <a:pt x="26" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="8"/>
+                  <a:pt x="25" y="10"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                  <a:pt x="25" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="13"/>
+                  <a:pt x="21" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                  <a:pt x="18" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="10"/>
+                  <a:pt x="22" y="7"/>
+                  <a:pt x="25" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="23" y="25"/>
+                  <a:pt x="22" y="25"/>
+                  <a:pt x="20" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="25"/>
+                  <a:pt x="17" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                  <a:pt x="15" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="22"/>
+                  <a:pt x="16" y="19"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                  <a:pt x="17" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="16"/>
+                  <a:pt x="22" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                  <a:pt x="25" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="19"/>
+                  <a:pt x="25" y="22"/>
+                  <a:pt x="25" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="10" y="11"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="8"/>
+                  <a:pt x="17" y="6"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                  <a:pt x="21" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="6"/>
+                  <a:pt x="18" y="8"/>
+                  <a:pt x="17" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="11"/>
+                  <a:pt x="16" y="12"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                  <a:pt x="15" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="13"/>
+                  <a:pt x="11" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                  <a:pt x="8" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="9" y="12"/>
+                  <a:pt x="10" y="11"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="4" y="25"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="22"/>
+                  <a:pt x="5" y="19"/>
+                  <a:pt x="6" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="6" y="16"/>
+                  <a:pt x="7" y="16"/>
+                  <a:pt x="7" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="9" y="16"/>
+                  <a:pt x="12" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                  <a:pt x="14" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="18"/>
+                  <a:pt x="13" y="20"/>
+                  <a:pt x="13" y="22"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="23"/>
+                  <a:pt x="13" y="24"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                  <a:pt x="12" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="25"/>
+                  <a:pt x="9" y="25"/>
+                  <a:pt x="8" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="25"/>
+                  <a:pt x="5" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                  <a:pt x="4" y="25"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="7" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="38"/>
+                  <a:pt x="6" y="38"/>
+                  <a:pt x="6" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="35"/>
+                  <a:pt x="4" y="32"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                  <a:pt x="4" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7" y="28"/>
+                  <a:pt x="9" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                  <a:pt x="12" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="13" y="31"/>
+                  <a:pt x="13" y="35"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                  <a:pt x="14" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="38"/>
+                  <a:pt x="9" y="38"/>
+                  <a:pt x="7" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="21" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="48"/>
+                  <a:pt x="16" y="47"/>
+                  <a:pt x="13" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="44"/>
+                  <a:pt x="10" y="42"/>
+                  <a:pt x="8" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                  <a:pt x="8" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="11" y="40"/>
+                  <a:pt x="13" y="40"/>
+                  <a:pt x="15" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="40"/>
+                  <a:pt x="15" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="44"/>
+                  <a:pt x="19" y="46"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                  <a:pt x="21" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="47"/>
+                  <a:pt x="20" y="44"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                  <a:pt x="18" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="40"/>
+                  <a:pt x="23" y="40"/>
+                  <a:pt x="25" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="40"/>
+                  <a:pt x="25" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="43"/>
+                  <a:pt x="25" y="46"/>
+                  <a:pt x="25" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="25" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="38"/>
+                  <a:pt x="20" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                  <a:pt x="17" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="16" y="35"/>
+                  <a:pt x="15" y="31"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                  <a:pt x="15" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="17" y="28"/>
+                  <a:pt x="18" y="28"/>
+                  <a:pt x="20" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="28"/>
+                  <a:pt x="23" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                  <a:pt x="25" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="31"/>
+                  <a:pt x="25" y="34"/>
+                  <a:pt x="25" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="19"/>
+                  <a:pt x="49" y="22"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                  <a:pt x="49" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="47" y="25"/>
+                  <a:pt x="46" y="25"/>
+                  <a:pt x="45" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="25"/>
+                  <a:pt x="42" y="25"/>
+                  <a:pt x="41" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                  <a:pt x="40" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="22"/>
+                  <a:pt x="40" y="19"/>
+                  <a:pt x="38" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="38" y="16"/>
+                  <a:pt x="39" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="41" y="16"/>
+                  <a:pt x="44" y="16"/>
+                  <a:pt x="46" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="32" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="5"/>
+                  <a:pt x="34" y="5"/>
+                  <a:pt x="36" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="8"/>
+                  <a:pt x="42" y="10"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="45" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="45" y="13"/>
+                  <a:pt x="44" y="13"/>
+                  <a:pt x="44" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="13"/>
+                  <a:pt x="40" y="13"/>
+                  <a:pt x="38" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                  <a:pt x="37" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="10"/>
+                  <a:pt x="34" y="7"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="5"/>
+                  <a:pt x="31" y="5"/>
+                  <a:pt x="32" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="5"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="5"/>
+                  <a:pt x="29" y="5"/>
+                  <a:pt x="29" y="6"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="8"/>
+                  <a:pt x="33" y="10"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="35" y="13"/>
+                  <a:pt x="34" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="13"/>
+                  <a:pt x="30" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                  <a:pt x="28" y="13"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="10"/>
+                  <a:pt x="28" y="7"/>
+                  <a:pt x="28" y="5"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="16"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="16"/>
+                  <a:pt x="33" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                  <a:pt x="36" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="19"/>
+                  <a:pt x="38" y="22"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="26"/>
+                  <a:pt x="38" y="25"/>
+                  <a:pt x="38" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="25"/>
+                  <a:pt x="34" y="25"/>
+                  <a:pt x="33" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="31" y="25"/>
+                  <a:pt x="29" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                  <a:pt x="28" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="22"/>
+                  <a:pt x="28" y="19"/>
+                  <a:pt x="28" y="16"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="28"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="29" y="28"/>
+                  <a:pt x="31" y="28"/>
+                  <a:pt x="33" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="34" y="28"/>
+                  <a:pt x="36" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                  <a:pt x="38" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="31"/>
+                  <a:pt x="37" y="35"/>
+                  <a:pt x="36" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="36" y="38"/>
+                  <a:pt x="35" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="38"/>
+                  <a:pt x="30" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="28" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="34"/>
+                  <a:pt x="28" y="31"/>
+                  <a:pt x="28" y="28"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="28" y="49"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="46"/>
+                  <a:pt x="28" y="43"/>
+                  <a:pt x="28" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                  <a:pt x="28" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="30" y="40"/>
+                  <a:pt x="32" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="35" y="40"/>
+                  <a:pt x="34" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="33" y="44"/>
+                  <a:pt x="31" y="46"/>
+                  <a:pt x="28" y="49"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="39" y="46"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="47"/>
+                  <a:pt x="34" y="48"/>
+                  <a:pt x="32" y="49"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="48"/>
+                  <a:pt x="33" y="47"/>
+                  <a:pt x="34" y="46"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="35" y="44"/>
+                  <a:pt x="36" y="42"/>
+                  <a:pt x="37" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="37" y="40"/>
+                  <a:pt x="38" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="40"/>
+                  <a:pt x="42" y="40"/>
+                  <a:pt x="44" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="44" y="40"/>
+                  <a:pt x="45" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="41" y="44"/>
+                  <a:pt x="39" y="46"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="46" y="38"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="44" y="38"/>
+                  <a:pt x="41" y="38"/>
+                  <a:pt x="39" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                  <a:pt x="38" y="38"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="39" y="35"/>
+                  <a:pt x="40" y="32"/>
+                  <a:pt x="40" y="30"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="29"/>
+                  <a:pt x="40" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="40" y="28"/>
+                  <a:pt x="41" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="28"/>
+                  <a:pt x="43" y="28"/>
+                  <a:pt x="45" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="28"/>
+                  <a:pt x="47" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                  <a:pt x="49" y="28"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="32"/>
+                  <a:pt x="48" y="35"/>
+                  <a:pt x="46" y="38"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="Freeform 23">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="242" y="294"/>
+            <a:ext cx="14" cy="226"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 64"/>
+              <a:gd name="T1" fmla="*/ 13 h 64"/>
+              <a:gd name="T2" fmla="*/ 1 w 64"/>
+              <a:gd name="T3" fmla="*/ 12 h 64"/>
+              <a:gd name="T4" fmla="*/ 2 w 64"/>
+              <a:gd name="T5" fmla="*/ 10 h 64"/>
+              <a:gd name="T6" fmla="*/ 11 w 64"/>
+              <a:gd name="T7" fmla="*/ 1 h 64"/>
+              <a:gd name="T8" fmla="*/ 15 w 64"/>
+              <a:gd name="T9" fmla="*/ 0 h 64"/>
+              <a:gd name="T10" fmla="*/ 16 w 64"/>
+              <a:gd name="T11" fmla="*/ 2 h 64"/>
+              <a:gd name="T12" fmla="*/ 23 w 64"/>
+              <a:gd name="T13" fmla="*/ 15 h 64"/>
+              <a:gd name="T14" fmla="*/ 23 w 64"/>
+              <a:gd name="T15" fmla="*/ 20 h 64"/>
+              <a:gd name="T16" fmla="*/ 19 w 64"/>
+              <a:gd name="T17" fmla="*/ 23 h 64"/>
+              <a:gd name="T18" fmla="*/ 19 w 64"/>
+              <a:gd name="T19" fmla="*/ 25 h 64"/>
+              <a:gd name="T20" fmla="*/ 21 w 64"/>
+              <a:gd name="T21" fmla="*/ 29 h 64"/>
+              <a:gd name="T22" fmla="*/ 25 w 64"/>
+              <a:gd name="T23" fmla="*/ 35 h 64"/>
+              <a:gd name="T24" fmla="*/ 34 w 64"/>
+              <a:gd name="T25" fmla="*/ 43 h 64"/>
+              <a:gd name="T26" fmla="*/ 39 w 64"/>
+              <a:gd name="T27" fmla="*/ 45 h 64"/>
+              <a:gd name="T28" fmla="*/ 41 w 64"/>
+              <a:gd name="T29" fmla="*/ 45 h 64"/>
+              <a:gd name="T30" fmla="*/ 44 w 64"/>
+              <a:gd name="T31" fmla="*/ 41 h 64"/>
+              <a:gd name="T32" fmla="*/ 50 w 64"/>
+              <a:gd name="T33" fmla="*/ 40 h 64"/>
+              <a:gd name="T34" fmla="*/ 62 w 64"/>
+              <a:gd name="T35" fmla="*/ 48 h 64"/>
+              <a:gd name="T36" fmla="*/ 64 w 64"/>
+              <a:gd name="T37" fmla="*/ 50 h 64"/>
+              <a:gd name="T38" fmla="*/ 63 w 64"/>
+              <a:gd name="T39" fmla="*/ 52 h 64"/>
+              <a:gd name="T40" fmla="*/ 63 w 64"/>
+              <a:gd name="T41" fmla="*/ 53 h 64"/>
+              <a:gd name="T42" fmla="*/ 54 w 64"/>
+              <a:gd name="T43" fmla="*/ 61 h 64"/>
+              <a:gd name="T44" fmla="*/ 50 w 64"/>
+              <a:gd name="T45" fmla="*/ 63 h 64"/>
+              <a:gd name="T46" fmla="*/ 50 w 64"/>
+              <a:gd name="T47" fmla="*/ 64 h 64"/>
+              <a:gd name="T48" fmla="*/ 50 w 64"/>
+              <a:gd name="T49" fmla="*/ 64 h 64"/>
+              <a:gd name="T50" fmla="*/ 49 w 64"/>
+              <a:gd name="T51" fmla="*/ 64 h 64"/>
+              <a:gd name="T52" fmla="*/ 48 w 64"/>
+              <a:gd name="T53" fmla="*/ 64 h 64"/>
+              <a:gd name="T54" fmla="*/ 43 w 64"/>
+              <a:gd name="T55" fmla="*/ 63 h 64"/>
+              <a:gd name="T56" fmla="*/ 35 w 64"/>
+              <a:gd name="T57" fmla="*/ 60 h 64"/>
+              <a:gd name="T58" fmla="*/ 26 w 64"/>
+              <a:gd name="T59" fmla="*/ 54 h 64"/>
+              <a:gd name="T60" fmla="*/ 21 w 64"/>
+              <a:gd name="T61" fmla="*/ 50 h 64"/>
+              <a:gd name="T62" fmla="*/ 16 w 64"/>
+              <a:gd name="T63" fmla="*/ 45 h 64"/>
+              <a:gd name="T64" fmla="*/ 6 w 64"/>
+              <a:gd name="T65" fmla="*/ 32 h 64"/>
+              <a:gd name="T66" fmla="*/ 1 w 64"/>
+              <a:gd name="T67" fmla="*/ 19 h 64"/>
+              <a:gd name="T68" fmla="*/ 0 w 64"/>
+              <a:gd name="T69" fmla="*/ 16 h 64"/>
+              <a:gd name="T70" fmla="*/ 0 w 64"/>
+              <a:gd name="T71" fmla="*/ 16 h 64"/>
+              <a:gd name="T72" fmla="*/ 0 w 64"/>
+              <a:gd name="T73" fmla="*/ 15 h 64"/>
+              <a:gd name="T74" fmla="*/ 0 w 64"/>
+              <a:gd name="T75" fmla="*/ 15 h 64"/>
+              <a:gd name="T76" fmla="*/ 0 w 64"/>
+              <a:gd name="T77" fmla="*/ 14 h 64"/>
+              <a:gd name="T78" fmla="*/ 0 w 64"/>
+              <a:gd name="T79" fmla="*/ 13 h 64"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T6" y="T7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T8" y="T9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T10" y="T11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T12" y="T13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T14" y="T15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T16" y="T17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T18" y="T19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T20" y="T21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T22" y="T23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T24" y="T25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T26" y="T27"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T28" y="T29"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T30" y="T31"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T32" y="T33"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T34" y="T35"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T36" y="T37"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T38" y="T39"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T40" y="T41"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T42" y="T43"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T44" y="T45"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T46" y="T47"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T48" y="T49"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T50" y="T51"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T52" y="T53"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T54" y="T55"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T56" y="T57"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T58" y="T59"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T60" y="T61"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T62" y="T63"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T64" y="T65"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T66" y="T67"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T68" y="T69"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T70" y="T71"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T72" y="T73"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T74" y="T75"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T76" y="T77"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T78" y="T79"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="64" h="64">
+                <a:moveTo>
+                  <a:pt x="0" y="13"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="13"/>
+                  <a:pt x="0" y="13"/>
+                  <a:pt x="1" y="12"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="1" y="11"/>
+                  <a:pt x="2" y="10"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="5" y="7"/>
+                  <a:pt x="8" y="4"/>
+                  <a:pt x="11" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="0"/>
+                  <a:pt x="14" y="0"/>
+                  <a:pt x="15" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15" y="1"/>
+                  <a:pt x="16" y="1"/>
+                  <a:pt x="16" y="2"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="18" y="6"/>
+                  <a:pt x="21" y="11"/>
+                  <a:pt x="23" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="24" y="17"/>
+                  <a:pt x="24" y="18"/>
+                  <a:pt x="23" y="20"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="21" y="21"/>
+                  <a:pt x="20" y="22"/>
+                  <a:pt x="19" y="23"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="23"/>
+                  <a:pt x="19" y="24"/>
+                  <a:pt x="19" y="25"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19" y="26"/>
+                  <a:pt x="20" y="28"/>
+                  <a:pt x="21" y="29"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="22" y="31"/>
+                  <a:pt x="24" y="33"/>
+                  <a:pt x="25" y="35"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="28" y="38"/>
+                  <a:pt x="31" y="41"/>
+                  <a:pt x="34" y="43"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="36" y="44"/>
+                  <a:pt x="37" y="45"/>
+                  <a:pt x="39" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="40" y="45"/>
+                  <a:pt x="41" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="42" y="43"/>
+                  <a:pt x="43" y="42"/>
+                  <a:pt x="44" y="41"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="40"/>
+                  <a:pt x="48" y="39"/>
+                  <a:pt x="50" y="40"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="54" y="43"/>
+                  <a:pt x="58" y="45"/>
+                  <a:pt x="62" y="48"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="48"/>
+                  <a:pt x="64" y="49"/>
+                  <a:pt x="64" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="64" y="51"/>
+                  <a:pt x="64" y="52"/>
+                  <a:pt x="63" y="52"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                  <a:pt x="63" y="53"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="60" y="56"/>
+                  <a:pt x="57" y="59"/>
+                  <a:pt x="54" y="61"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="53" y="62"/>
+                  <a:pt x="52" y="63"/>
+                  <a:pt x="50" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="63"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                  <a:pt x="50" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="63"/>
+                  <a:pt x="49" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                  <a:pt x="48" y="64"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="46" y="63"/>
+                  <a:pt x="45" y="63"/>
+                  <a:pt x="43" y="63"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="40" y="62"/>
+                  <a:pt x="37" y="61"/>
+                  <a:pt x="35" y="60"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="32" y="58"/>
+                  <a:pt x="29" y="56"/>
+                  <a:pt x="26" y="54"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="25" y="53"/>
+                  <a:pt x="23" y="52"/>
+                  <a:pt x="21" y="50"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="20" y="49"/>
+                  <a:pt x="18" y="47"/>
+                  <a:pt x="16" y="45"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="12" y="41"/>
+                  <a:pt x="8" y="37"/>
+                  <a:pt x="6" y="32"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="3" y="28"/>
+                  <a:pt x="1" y="23"/>
+                  <a:pt x="1" y="19"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="18"/>
+                  <a:pt x="0" y="17"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="16"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="15"/>
+                  <a:pt x="0" y="14"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="14"/>
+                  <a:pt x="0" y="13"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="Freeform 24">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="249"/>
+            <a:ext cx="0" cy="239"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="Freeform 25">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="272" y="269"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 w 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 1 w 1"/>
+              <a:gd name="T3" fmla="*/ 1 h 1"/>
+              <a:gd name="T4" fmla="*/ 0 w 1"/>
+              <a:gd name="T5" fmla="*/ 1 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="T0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T2" y="T3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="T4" y="T5"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="1" h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="1"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="0" y="0"/>
+                  <a:pt x="1" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="Freeform 26">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="253" y="250"/>
+            <a:ext cx="0" cy="238"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="T0" fmla="*/ 0 h 1"/>
+              <a:gd name="T1" fmla="*/ 1 h 1"/>
+              <a:gd name="T2" fmla="*/ 0 h 1"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="0" y="T2"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="0" t="0" r="r" b="b"/>
+            <a:pathLst>
+              <a:path h="1">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="1"/>
+                  <a:pt x="0" y="0"/>
+                </a:cubicBezTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:round/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2856,2036 +4886,6 @@
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="23" name="Freeform 26">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="253" y="250"/>
-            <a:ext cx="0" cy="238"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="T0" fmla="*/ 0 h 1"/>
-              <a:gd name="T1" fmla="*/ 1 h 1"/>
-              <a:gd name="T2" fmla="*/ 0 h 1"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="0" y="T0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="0" y="T1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="0" y="T2"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="0" t="0" r="r" b="b"/>
-            <a:pathLst>
-              <a:path h="1">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="0"/>
-                </a:cubicBezTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>84431</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>31599</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>738849</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>124436</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="2" name="Group 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr>
-          <a:grpSpLocks noChangeAspect="1"/>
-        </xdr:cNvGrpSpPr>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="84431" y="7346799"/>
-          <a:ext cx="5531218" cy="302387"/>
-          <a:chOff x="242" y="249"/>
-          <a:chExt cx="302" cy="300"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="Freeform 21">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noEditPoints="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="348" y="294"/>
-            <a:ext cx="11" cy="255"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="T0" fmla="*/ 40 w 41"/>
-              <a:gd name="T1" fmla="*/ 19 h 66"/>
-              <a:gd name="T2" fmla="*/ 31 w 41"/>
-              <a:gd name="T3" fmla="*/ 5 h 66"/>
-              <a:gd name="T4" fmla="*/ 11 w 41"/>
-              <a:gd name="T5" fmla="*/ 4 h 66"/>
-              <a:gd name="T6" fmla="*/ 0 w 41"/>
-              <a:gd name="T7" fmla="*/ 22 h 66"/>
-              <a:gd name="T8" fmla="*/ 0 w 41"/>
-              <a:gd name="T9" fmla="*/ 25 h 66"/>
-              <a:gd name="T10" fmla="*/ 4 w 41"/>
-              <a:gd name="T11" fmla="*/ 38 h 66"/>
-              <a:gd name="T12" fmla="*/ 19 w 41"/>
-              <a:gd name="T13" fmla="*/ 65 h 66"/>
-              <a:gd name="T14" fmla="*/ 21 w 41"/>
-              <a:gd name="T15" fmla="*/ 65 h 66"/>
-              <a:gd name="T16" fmla="*/ 33 w 41"/>
-              <a:gd name="T17" fmla="*/ 43 h 66"/>
-              <a:gd name="T18" fmla="*/ 39 w 41"/>
-              <a:gd name="T19" fmla="*/ 29 h 66"/>
-              <a:gd name="T20" fmla="*/ 40 w 41"/>
-              <a:gd name="T21" fmla="*/ 19 h 66"/>
-              <a:gd name="T22" fmla="*/ 20 w 41"/>
-              <a:gd name="T23" fmla="*/ 32 h 66"/>
-              <a:gd name="T24" fmla="*/ 11 w 41"/>
-              <a:gd name="T25" fmla="*/ 22 h 66"/>
-              <a:gd name="T26" fmla="*/ 20 w 41"/>
-              <a:gd name="T27" fmla="*/ 13 h 66"/>
-              <a:gd name="T28" fmla="*/ 29 w 41"/>
-              <a:gd name="T29" fmla="*/ 22 h 66"/>
-              <a:gd name="T30" fmla="*/ 20 w 41"/>
-              <a:gd name="T31" fmla="*/ 32 h 66"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="T0" y="T1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T2" y="T3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T4" y="T5"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T6" y="T7"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T8" y="T9"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T10" y="T11"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T12" y="T13"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T14" y="T15"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T16" y="T17"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T18" y="T19"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T20" y="T21"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T22" y="T23"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T24" y="T25"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T26" y="T27"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T28" y="T29"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T30" y="T31"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="0" t="0" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="41" h="66">
-                <a:moveTo>
-                  <a:pt x="40" y="19"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="39" y="13"/>
-                  <a:pt x="36" y="8"/>
-                  <a:pt x="31" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="1"/>
-                  <a:pt x="18" y="0"/>
-                  <a:pt x="11" y="4"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="4" y="7"/>
-                  <a:pt x="0" y="14"/>
-                  <a:pt x="0" y="22"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="23"/>
-                  <a:pt x="0" y="24"/>
-                  <a:pt x="0" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="29"/>
-                  <a:pt x="2" y="34"/>
-                  <a:pt x="4" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="8" y="48"/>
-                  <a:pt x="13" y="57"/>
-                  <a:pt x="19" y="65"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="20" y="66"/>
-                  <a:pt x="20" y="66"/>
-                  <a:pt x="21" y="65"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="58"/>
-                  <a:pt x="30" y="51"/>
-                  <a:pt x="33" y="43"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="36" y="39"/>
-                  <a:pt x="38" y="34"/>
-                  <a:pt x="39" y="29"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="26"/>
-                  <a:pt x="41" y="22"/>
-                  <a:pt x="40" y="19"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="20" y="32"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="32"/>
-                  <a:pt x="11" y="27"/>
-                  <a:pt x="11" y="22"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="11" y="17"/>
-                  <a:pt x="15" y="13"/>
-                  <a:pt x="20" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="13"/>
-                  <a:pt x="29" y="17"/>
-                  <a:pt x="29" y="22"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="29" y="27"/>
-                  <a:pt x="25" y="32"/>
-                  <a:pt x="20" y="32"/>
-                </a:cubicBezTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="Freeform 22">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks noEditPoints="1"/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="531" y="311"/>
-            <a:ext cx="13" cy="229"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="T0" fmla="*/ 26 w 53"/>
-              <a:gd name="T1" fmla="*/ 53 h 53"/>
-              <a:gd name="T2" fmla="*/ 25 w 53"/>
-              <a:gd name="T3" fmla="*/ 5 h 53"/>
-              <a:gd name="T4" fmla="*/ 25 w 53"/>
-              <a:gd name="T5" fmla="*/ 13 h 53"/>
-              <a:gd name="T6" fmla="*/ 18 w 53"/>
-              <a:gd name="T7" fmla="*/ 13 h 53"/>
-              <a:gd name="T8" fmla="*/ 25 w 53"/>
-              <a:gd name="T9" fmla="*/ 25 h 53"/>
-              <a:gd name="T10" fmla="*/ 15 w 53"/>
-              <a:gd name="T11" fmla="*/ 25 h 53"/>
-              <a:gd name="T12" fmla="*/ 25 w 53"/>
-              <a:gd name="T13" fmla="*/ 16 h 53"/>
-              <a:gd name="T14" fmla="*/ 10 w 53"/>
-              <a:gd name="T15" fmla="*/ 11 h 53"/>
-              <a:gd name="T16" fmla="*/ 21 w 53"/>
-              <a:gd name="T17" fmla="*/ 5 h 53"/>
-              <a:gd name="T18" fmla="*/ 15 w 53"/>
-              <a:gd name="T19" fmla="*/ 13 h 53"/>
-              <a:gd name="T20" fmla="*/ 8 w 53"/>
-              <a:gd name="T21" fmla="*/ 13 h 53"/>
-              <a:gd name="T22" fmla="*/ 6 w 53"/>
-              <a:gd name="T23" fmla="*/ 16 h 53"/>
-              <a:gd name="T24" fmla="*/ 14 w 53"/>
-              <a:gd name="T25" fmla="*/ 16 h 53"/>
-              <a:gd name="T26" fmla="*/ 12 w 53"/>
-              <a:gd name="T27" fmla="*/ 25 h 53"/>
-              <a:gd name="T28" fmla="*/ 4 w 53"/>
-              <a:gd name="T29" fmla="*/ 25 h 53"/>
-              <a:gd name="T30" fmla="*/ 4 w 53"/>
-              <a:gd name="T31" fmla="*/ 28 h 53"/>
-              <a:gd name="T32" fmla="*/ 12 w 53"/>
-              <a:gd name="T33" fmla="*/ 28 h 53"/>
-              <a:gd name="T34" fmla="*/ 14 w 53"/>
-              <a:gd name="T35" fmla="*/ 38 h 53"/>
-              <a:gd name="T36" fmla="*/ 21 w 53"/>
-              <a:gd name="T37" fmla="*/ 49 h 53"/>
-              <a:gd name="T38" fmla="*/ 8 w 53"/>
-              <a:gd name="T39" fmla="*/ 40 h 53"/>
-              <a:gd name="T40" fmla="*/ 15 w 53"/>
-              <a:gd name="T41" fmla="*/ 41 h 53"/>
-              <a:gd name="T42" fmla="*/ 25 w 53"/>
-              <a:gd name="T43" fmla="*/ 49 h 53"/>
-              <a:gd name="T44" fmla="*/ 18 w 53"/>
-              <a:gd name="T45" fmla="*/ 40 h 53"/>
-              <a:gd name="T46" fmla="*/ 25 w 53"/>
-              <a:gd name="T47" fmla="*/ 49 h 53"/>
-              <a:gd name="T48" fmla="*/ 17 w 53"/>
-              <a:gd name="T49" fmla="*/ 38 h 53"/>
-              <a:gd name="T50" fmla="*/ 15 w 53"/>
-              <a:gd name="T51" fmla="*/ 28 h 53"/>
-              <a:gd name="T52" fmla="*/ 25 w 53"/>
-              <a:gd name="T53" fmla="*/ 28 h 53"/>
-              <a:gd name="T54" fmla="*/ 46 w 53"/>
-              <a:gd name="T55" fmla="*/ 16 h 53"/>
-              <a:gd name="T56" fmla="*/ 45 w 53"/>
-              <a:gd name="T57" fmla="*/ 25 h 53"/>
-              <a:gd name="T58" fmla="*/ 38 w 53"/>
-              <a:gd name="T59" fmla="*/ 16 h 53"/>
-              <a:gd name="T60" fmla="*/ 32 w 53"/>
-              <a:gd name="T61" fmla="*/ 5 h 53"/>
-              <a:gd name="T62" fmla="*/ 44 w 53"/>
-              <a:gd name="T63" fmla="*/ 13 h 53"/>
-              <a:gd name="T64" fmla="*/ 38 w 53"/>
-              <a:gd name="T65" fmla="*/ 13 h 53"/>
-              <a:gd name="T66" fmla="*/ 32 w 53"/>
-              <a:gd name="T67" fmla="*/ 5 h 53"/>
-              <a:gd name="T68" fmla="*/ 32 w 53"/>
-              <a:gd name="T69" fmla="*/ 5 h 53"/>
-              <a:gd name="T70" fmla="*/ 29 w 53"/>
-              <a:gd name="T71" fmla="*/ 6 h 53"/>
-              <a:gd name="T72" fmla="*/ 28 w 53"/>
-              <a:gd name="T73" fmla="*/ 13 h 53"/>
-              <a:gd name="T74" fmla="*/ 28 w 53"/>
-              <a:gd name="T75" fmla="*/ 16 h 53"/>
-              <a:gd name="T76" fmla="*/ 36 w 53"/>
-              <a:gd name="T77" fmla="*/ 16 h 53"/>
-              <a:gd name="T78" fmla="*/ 33 w 53"/>
-              <a:gd name="T79" fmla="*/ 25 h 53"/>
-              <a:gd name="T80" fmla="*/ 28 w 53"/>
-              <a:gd name="T81" fmla="*/ 16 h 53"/>
-              <a:gd name="T82" fmla="*/ 33 w 53"/>
-              <a:gd name="T83" fmla="*/ 28 h 53"/>
-              <a:gd name="T84" fmla="*/ 36 w 53"/>
-              <a:gd name="T85" fmla="*/ 38 h 53"/>
-              <a:gd name="T86" fmla="*/ 28 w 53"/>
-              <a:gd name="T87" fmla="*/ 38 h 53"/>
-              <a:gd name="T88" fmla="*/ 28 w 53"/>
-              <a:gd name="T89" fmla="*/ 49 h 53"/>
-              <a:gd name="T90" fmla="*/ 28 w 53"/>
-              <a:gd name="T91" fmla="*/ 41 h 53"/>
-              <a:gd name="T92" fmla="*/ 34 w 53"/>
-              <a:gd name="T93" fmla="*/ 40 h 53"/>
-              <a:gd name="T94" fmla="*/ 32 w 53"/>
-              <a:gd name="T95" fmla="*/ 49 h 53"/>
-              <a:gd name="T96" fmla="*/ 38 w 53"/>
-              <a:gd name="T97" fmla="*/ 40 h 53"/>
-              <a:gd name="T98" fmla="*/ 39 w 53"/>
-              <a:gd name="T99" fmla="*/ 46 h 53"/>
-              <a:gd name="T100" fmla="*/ 39 w 53"/>
-              <a:gd name="T101" fmla="*/ 38 h 53"/>
-              <a:gd name="T102" fmla="*/ 40 w 53"/>
-              <a:gd name="T103" fmla="*/ 28 h 53"/>
-              <a:gd name="T104" fmla="*/ 49 w 53"/>
-              <a:gd name="T105" fmla="*/ 28 h 53"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="T0" y="T1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T2" y="T3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T4" y="T5"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T6" y="T7"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T8" y="T9"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T10" y="T11"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T12" y="T13"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T14" y="T15"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T16" y="T17"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T18" y="T19"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T20" y="T21"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T22" y="T23"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T24" y="T25"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T26" y="T27"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T28" y="T29"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T30" y="T31"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T32" y="T33"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T34" y="T35"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T36" y="T37"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T38" y="T39"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T40" y="T41"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T42" y="T43"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T44" y="T45"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T46" y="T47"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T48" y="T49"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T50" y="T51"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T52" y="T53"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T54" y="T55"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T56" y="T57"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T58" y="T59"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T60" y="T61"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T62" y="T63"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T64" y="T65"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T66" y="T67"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T68" y="T69"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T70" y="T71"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T72" y="T73"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T74" y="T75"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T76" y="T77"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T78" y="T79"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T80" y="T81"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T82" y="T83"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T84" y="T85"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T86" y="T87"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T88" y="T89"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T90" y="T91"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T92" y="T93"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T94" y="T95"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T96" y="T97"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T98" y="T99"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T100" y="T101"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T102" y="T103"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T104" y="T105"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="0" t="0" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="53" h="53">
-                <a:moveTo>
-                  <a:pt x="26" y="0"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="12" y="0"/>
-                  <a:pt x="0" y="12"/>
-                  <a:pt x="0" y="27"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="41"/>
-                  <a:pt x="12" y="53"/>
-                  <a:pt x="26" y="53"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="41" y="53"/>
-                  <a:pt x="53" y="41"/>
-                  <a:pt x="53" y="27"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="53" y="12"/>
-                  <a:pt x="41" y="0"/>
-                  <a:pt x="26" y="0"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="25" y="5"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="5"/>
-                  <a:pt x="25" y="5"/>
-                  <a:pt x="25" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="5"/>
-                  <a:pt x="25" y="5"/>
-                  <a:pt x="25" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="8"/>
-                  <a:pt x="25" y="10"/>
-                  <a:pt x="25" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="13"/>
-                  <a:pt x="25" y="13"/>
-                  <a:pt x="25" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="23" y="13"/>
-                  <a:pt x="21" y="13"/>
-                  <a:pt x="18" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="18" y="13"/>
-                  <a:pt x="18" y="13"/>
-                  <a:pt x="18" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="20" y="10"/>
-                  <a:pt x="22" y="7"/>
-                  <a:pt x="25" y="5"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="25" y="25"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="25"/>
-                  <a:pt x="25" y="25"/>
-                  <a:pt x="25" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="23" y="25"/>
-                  <a:pt x="22" y="25"/>
-                  <a:pt x="20" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="18" y="25"/>
-                  <a:pt x="17" y="25"/>
-                  <a:pt x="15" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="25"/>
-                  <a:pt x="15" y="25"/>
-                  <a:pt x="15" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="22"/>
-                  <a:pt x="16" y="19"/>
-                  <a:pt x="17" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="17" y="16"/>
-                  <a:pt x="17" y="16"/>
-                  <a:pt x="17" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="20" y="16"/>
-                  <a:pt x="22" y="16"/>
-                  <a:pt x="25" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="16"/>
-                  <a:pt x="25" y="16"/>
-                  <a:pt x="25" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="19"/>
-                  <a:pt x="25" y="22"/>
-                  <a:pt x="25" y="25"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="10" y="11"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="13" y="8"/>
-                  <a:pt x="17" y="6"/>
-                  <a:pt x="21" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="5"/>
-                  <a:pt x="21" y="5"/>
-                  <a:pt x="21" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="5"/>
-                  <a:pt x="21" y="5"/>
-                  <a:pt x="21" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="5"/>
-                  <a:pt x="21" y="5"/>
-                  <a:pt x="21" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="20" y="6"/>
-                  <a:pt x="18" y="8"/>
-                  <a:pt x="17" y="10"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="16" y="11"/>
-                  <a:pt x="16" y="12"/>
-                  <a:pt x="15" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="13"/>
-                  <a:pt x="15" y="13"/>
-                  <a:pt x="15" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="13" y="13"/>
-                  <a:pt x="11" y="13"/>
-                  <a:pt x="8" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="8" y="13"/>
-                  <a:pt x="8" y="13"/>
-                  <a:pt x="8" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="9" y="12"/>
-                  <a:pt x="9" y="12"/>
-                  <a:pt x="10" y="11"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="4" y="25"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="4" y="22"/>
-                  <a:pt x="5" y="19"/>
-                  <a:pt x="6" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="6" y="16"/>
-                  <a:pt x="7" y="16"/>
-                  <a:pt x="7" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="9" y="16"/>
-                  <a:pt x="12" y="16"/>
-                  <a:pt x="14" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="14" y="16"/>
-                  <a:pt x="14" y="16"/>
-                  <a:pt x="14" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="14" y="18"/>
-                  <a:pt x="13" y="20"/>
-                  <a:pt x="13" y="22"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="13" y="23"/>
-                  <a:pt x="13" y="24"/>
-                  <a:pt x="12" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="12" y="25"/>
-                  <a:pt x="12" y="25"/>
-                  <a:pt x="12" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="11" y="25"/>
-                  <a:pt x="9" y="25"/>
-                  <a:pt x="8" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="7" y="25"/>
-                  <a:pt x="5" y="25"/>
-                  <a:pt x="4" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="4" y="25"/>
-                  <a:pt x="4" y="25"/>
-                  <a:pt x="4" y="25"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="7" y="38"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="7" y="38"/>
-                  <a:pt x="6" y="38"/>
-                  <a:pt x="6" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="5" y="35"/>
-                  <a:pt x="4" y="32"/>
-                  <a:pt x="4" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="4" y="28"/>
-                  <a:pt x="4" y="28"/>
-                  <a:pt x="4" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="7" y="28"/>
-                  <a:pt x="9" y="28"/>
-                  <a:pt x="12" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="12" y="28"/>
-                  <a:pt x="12" y="28"/>
-                  <a:pt x="12" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="13" y="31"/>
-                  <a:pt x="13" y="35"/>
-                  <a:pt x="14" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="14" y="38"/>
-                  <a:pt x="14" y="38"/>
-                  <a:pt x="14" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="14" y="38"/>
-                  <a:pt x="14" y="38"/>
-                  <a:pt x="14" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="12" y="38"/>
-                  <a:pt x="9" y="38"/>
-                  <a:pt x="7" y="38"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="21" y="49"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="49"/>
-                  <a:pt x="21" y="49"/>
-                  <a:pt x="21" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="18" y="48"/>
-                  <a:pt x="16" y="47"/>
-                  <a:pt x="13" y="45"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="11" y="44"/>
-                  <a:pt x="10" y="42"/>
-                  <a:pt x="8" y="41"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="8" y="40"/>
-                  <a:pt x="8" y="40"/>
-                  <a:pt x="8" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="8" y="40"/>
-                  <a:pt x="8" y="40"/>
-                  <a:pt x="8" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="11" y="40"/>
-                  <a:pt x="13" y="40"/>
-                  <a:pt x="15" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="40"/>
-                  <a:pt x="15" y="40"/>
-                  <a:pt x="15" y="41"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="17" y="44"/>
-                  <a:pt x="19" y="46"/>
-                  <a:pt x="21" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="49"/>
-                  <a:pt x="21" y="49"/>
-                  <a:pt x="21" y="49"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="25" y="49"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="49"/>
-                  <a:pt x="25" y="49"/>
-                  <a:pt x="25" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="22" y="47"/>
-                  <a:pt x="20" y="44"/>
-                  <a:pt x="18" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="18" y="40"/>
-                  <a:pt x="18" y="40"/>
-                  <a:pt x="18" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="40"/>
-                  <a:pt x="23" y="40"/>
-                  <a:pt x="25" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="40"/>
-                  <a:pt x="25" y="40"/>
-                  <a:pt x="25" y="41"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="43"/>
-                  <a:pt x="25" y="46"/>
-                  <a:pt x="25" y="49"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="25" y="38"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="38"/>
-                  <a:pt x="25" y="38"/>
-                  <a:pt x="25" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="22" y="38"/>
-                  <a:pt x="20" y="38"/>
-                  <a:pt x="17" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="17" y="38"/>
-                  <a:pt x="17" y="38"/>
-                  <a:pt x="17" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="16" y="35"/>
-                  <a:pt x="15" y="31"/>
-                  <a:pt x="15" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="28"/>
-                  <a:pt x="15" y="28"/>
-                  <a:pt x="15" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="17" y="28"/>
-                  <a:pt x="18" y="28"/>
-                  <a:pt x="20" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="22" y="28"/>
-                  <a:pt x="23" y="28"/>
-                  <a:pt x="25" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="28"/>
-                  <a:pt x="25" y="28"/>
-                  <a:pt x="25" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="31"/>
-                  <a:pt x="25" y="34"/>
-                  <a:pt x="25" y="38"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="46" y="16"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="46" y="16"/>
-                  <a:pt x="46" y="16"/>
-                  <a:pt x="46" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="48" y="19"/>
-                  <a:pt x="49" y="22"/>
-                  <a:pt x="49" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="49" y="25"/>
-                  <a:pt x="49" y="25"/>
-                  <a:pt x="49" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="47" y="25"/>
-                  <a:pt x="46" y="25"/>
-                  <a:pt x="45" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="43" y="25"/>
-                  <a:pt x="42" y="25"/>
-                  <a:pt x="41" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="25"/>
-                  <a:pt x="40" y="25"/>
-                  <a:pt x="40" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="22"/>
-                  <a:pt x="40" y="19"/>
-                  <a:pt x="38" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="38" y="16"/>
-                  <a:pt x="38" y="16"/>
-                  <a:pt x="39" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="41" y="16"/>
-                  <a:pt x="44" y="16"/>
-                  <a:pt x="46" y="16"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="32" y="5"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="33" y="5"/>
-                  <a:pt x="34" y="5"/>
-                  <a:pt x="36" y="6"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="39" y="8"/>
-                  <a:pt x="42" y="10"/>
-                  <a:pt x="44" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="44" y="13"/>
-                  <a:pt x="45" y="13"/>
-                  <a:pt x="45" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="45" y="13"/>
-                  <a:pt x="44" y="13"/>
-                  <a:pt x="44" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="42" y="13"/>
-                  <a:pt x="40" y="13"/>
-                  <a:pt x="38" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="37" y="13"/>
-                  <a:pt x="37" y="13"/>
-                  <a:pt x="37" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="36" y="10"/>
-                  <a:pt x="34" y="7"/>
-                  <a:pt x="32" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="32" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="5"/>
-                  <a:pt x="31" y="5"/>
-                  <a:pt x="32" y="5"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="28" y="5"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="5"/>
-                  <a:pt x="28" y="5"/>
-                  <a:pt x="28" y="5"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="5"/>
-                  <a:pt x="29" y="5"/>
-                  <a:pt x="29" y="6"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="31" y="8"/>
-                  <a:pt x="33" y="10"/>
-                  <a:pt x="34" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="35" y="13"/>
-                  <a:pt x="35" y="13"/>
-                  <a:pt x="34" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="13"/>
-                  <a:pt x="30" y="13"/>
-                  <a:pt x="28" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="13"/>
-                  <a:pt x="28" y="13"/>
-                  <a:pt x="28" y="13"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="10"/>
-                  <a:pt x="28" y="7"/>
-                  <a:pt x="28" y="5"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="28" y="16"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="16"/>
-                  <a:pt x="28" y="16"/>
-                  <a:pt x="28" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="30" y="16"/>
-                  <a:pt x="33" y="16"/>
-                  <a:pt x="36" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="36" y="16"/>
-                  <a:pt x="36" y="16"/>
-                  <a:pt x="36" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="37" y="19"/>
-                  <a:pt x="38" y="22"/>
-                  <a:pt x="38" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="38" y="26"/>
-                  <a:pt x="38" y="25"/>
-                  <a:pt x="38" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="36" y="25"/>
-                  <a:pt x="34" y="25"/>
-                  <a:pt x="33" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="31" y="25"/>
-                  <a:pt x="29" y="25"/>
-                  <a:pt x="28" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="25"/>
-                  <a:pt x="28" y="25"/>
-                  <a:pt x="28" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="22"/>
-                  <a:pt x="28" y="19"/>
-                  <a:pt x="28" y="16"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="28" y="28"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="28"/>
-                  <a:pt x="28" y="28"/>
-                  <a:pt x="28" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="29" y="28"/>
-                  <a:pt x="31" y="28"/>
-                  <a:pt x="33" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="34" y="28"/>
-                  <a:pt x="36" y="28"/>
-                  <a:pt x="38" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="38" y="28"/>
-                  <a:pt x="38" y="28"/>
-                  <a:pt x="38" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="38" y="31"/>
-                  <a:pt x="37" y="35"/>
-                  <a:pt x="36" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="36" y="38"/>
-                  <a:pt x="36" y="38"/>
-                  <a:pt x="35" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="33" y="38"/>
-                  <a:pt x="30" y="38"/>
-                  <a:pt x="28" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="38"/>
-                  <a:pt x="28" y="38"/>
-                  <a:pt x="28" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="34"/>
-                  <a:pt x="28" y="31"/>
-                  <a:pt x="28" y="28"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="28" y="49"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="49"/>
-                  <a:pt x="28" y="49"/>
-                  <a:pt x="28" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="49"/>
-                  <a:pt x="28" y="49"/>
-                  <a:pt x="28" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="49"/>
-                  <a:pt x="28" y="49"/>
-                  <a:pt x="28" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="46"/>
-                  <a:pt x="28" y="43"/>
-                  <a:pt x="28" y="41"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="40"/>
-                  <a:pt x="28" y="40"/>
-                  <a:pt x="28" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="30" y="40"/>
-                  <a:pt x="32" y="40"/>
-                  <a:pt x="34" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="35" y="40"/>
-                  <a:pt x="35" y="40"/>
-                  <a:pt x="34" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="33" y="44"/>
-                  <a:pt x="31" y="46"/>
-                  <a:pt x="28" y="49"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="39" y="46"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="37" y="47"/>
-                  <a:pt x="34" y="48"/>
-                  <a:pt x="32" y="49"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="48"/>
-                  <a:pt x="33" y="47"/>
-                  <a:pt x="34" y="46"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="35" y="44"/>
-                  <a:pt x="36" y="42"/>
-                  <a:pt x="37" y="41"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="37" y="40"/>
-                  <a:pt x="37" y="40"/>
-                  <a:pt x="38" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="40"/>
-                  <a:pt x="42" y="40"/>
-                  <a:pt x="44" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="44" y="40"/>
-                  <a:pt x="44" y="40"/>
-                  <a:pt x="45" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="43" y="42"/>
-                  <a:pt x="41" y="44"/>
-                  <a:pt x="39" y="46"/>
-                </a:cubicBezTo>
-                <a:close/>
-                <a:moveTo>
-                  <a:pt x="46" y="38"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="46" y="38"/>
-                  <a:pt x="46" y="38"/>
-                  <a:pt x="46" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="44" y="38"/>
-                  <a:pt x="41" y="38"/>
-                  <a:pt x="39" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="38" y="38"/>
-                  <a:pt x="38" y="38"/>
-                  <a:pt x="38" y="38"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="39" y="35"/>
-                  <a:pt x="40" y="32"/>
-                  <a:pt x="40" y="30"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="29"/>
-                  <a:pt x="40" y="29"/>
-                  <a:pt x="40" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="28"/>
-                  <a:pt x="40" y="28"/>
-                  <a:pt x="41" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="42" y="28"/>
-                  <a:pt x="43" y="28"/>
-                  <a:pt x="45" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="46" y="28"/>
-                  <a:pt x="47" y="28"/>
-                  <a:pt x="49" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="49" y="28"/>
-                  <a:pt x="49" y="28"/>
-                  <a:pt x="49" y="28"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="49" y="32"/>
-                  <a:pt x="48" y="35"/>
-                  <a:pt x="46" y="38"/>
-                </a:cubicBezTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="Freeform 23">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="242" y="294"/>
-            <a:ext cx="14" cy="226"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="T0" fmla="*/ 0 w 64"/>
-              <a:gd name="T1" fmla="*/ 13 h 64"/>
-              <a:gd name="T2" fmla="*/ 1 w 64"/>
-              <a:gd name="T3" fmla="*/ 12 h 64"/>
-              <a:gd name="T4" fmla="*/ 2 w 64"/>
-              <a:gd name="T5" fmla="*/ 10 h 64"/>
-              <a:gd name="T6" fmla="*/ 11 w 64"/>
-              <a:gd name="T7" fmla="*/ 1 h 64"/>
-              <a:gd name="T8" fmla="*/ 15 w 64"/>
-              <a:gd name="T9" fmla="*/ 0 h 64"/>
-              <a:gd name="T10" fmla="*/ 16 w 64"/>
-              <a:gd name="T11" fmla="*/ 2 h 64"/>
-              <a:gd name="T12" fmla="*/ 23 w 64"/>
-              <a:gd name="T13" fmla="*/ 15 h 64"/>
-              <a:gd name="T14" fmla="*/ 23 w 64"/>
-              <a:gd name="T15" fmla="*/ 20 h 64"/>
-              <a:gd name="T16" fmla="*/ 19 w 64"/>
-              <a:gd name="T17" fmla="*/ 23 h 64"/>
-              <a:gd name="T18" fmla="*/ 19 w 64"/>
-              <a:gd name="T19" fmla="*/ 25 h 64"/>
-              <a:gd name="T20" fmla="*/ 21 w 64"/>
-              <a:gd name="T21" fmla="*/ 29 h 64"/>
-              <a:gd name="T22" fmla="*/ 25 w 64"/>
-              <a:gd name="T23" fmla="*/ 35 h 64"/>
-              <a:gd name="T24" fmla="*/ 34 w 64"/>
-              <a:gd name="T25" fmla="*/ 43 h 64"/>
-              <a:gd name="T26" fmla="*/ 39 w 64"/>
-              <a:gd name="T27" fmla="*/ 45 h 64"/>
-              <a:gd name="T28" fmla="*/ 41 w 64"/>
-              <a:gd name="T29" fmla="*/ 45 h 64"/>
-              <a:gd name="T30" fmla="*/ 44 w 64"/>
-              <a:gd name="T31" fmla="*/ 41 h 64"/>
-              <a:gd name="T32" fmla="*/ 50 w 64"/>
-              <a:gd name="T33" fmla="*/ 40 h 64"/>
-              <a:gd name="T34" fmla="*/ 62 w 64"/>
-              <a:gd name="T35" fmla="*/ 48 h 64"/>
-              <a:gd name="T36" fmla="*/ 64 w 64"/>
-              <a:gd name="T37" fmla="*/ 50 h 64"/>
-              <a:gd name="T38" fmla="*/ 63 w 64"/>
-              <a:gd name="T39" fmla="*/ 52 h 64"/>
-              <a:gd name="T40" fmla="*/ 63 w 64"/>
-              <a:gd name="T41" fmla="*/ 53 h 64"/>
-              <a:gd name="T42" fmla="*/ 54 w 64"/>
-              <a:gd name="T43" fmla="*/ 61 h 64"/>
-              <a:gd name="T44" fmla="*/ 50 w 64"/>
-              <a:gd name="T45" fmla="*/ 63 h 64"/>
-              <a:gd name="T46" fmla="*/ 50 w 64"/>
-              <a:gd name="T47" fmla="*/ 64 h 64"/>
-              <a:gd name="T48" fmla="*/ 50 w 64"/>
-              <a:gd name="T49" fmla="*/ 64 h 64"/>
-              <a:gd name="T50" fmla="*/ 49 w 64"/>
-              <a:gd name="T51" fmla="*/ 64 h 64"/>
-              <a:gd name="T52" fmla="*/ 48 w 64"/>
-              <a:gd name="T53" fmla="*/ 64 h 64"/>
-              <a:gd name="T54" fmla="*/ 43 w 64"/>
-              <a:gd name="T55" fmla="*/ 63 h 64"/>
-              <a:gd name="T56" fmla="*/ 35 w 64"/>
-              <a:gd name="T57" fmla="*/ 60 h 64"/>
-              <a:gd name="T58" fmla="*/ 26 w 64"/>
-              <a:gd name="T59" fmla="*/ 54 h 64"/>
-              <a:gd name="T60" fmla="*/ 21 w 64"/>
-              <a:gd name="T61" fmla="*/ 50 h 64"/>
-              <a:gd name="T62" fmla="*/ 16 w 64"/>
-              <a:gd name="T63" fmla="*/ 45 h 64"/>
-              <a:gd name="T64" fmla="*/ 6 w 64"/>
-              <a:gd name="T65" fmla="*/ 32 h 64"/>
-              <a:gd name="T66" fmla="*/ 1 w 64"/>
-              <a:gd name="T67" fmla="*/ 19 h 64"/>
-              <a:gd name="T68" fmla="*/ 0 w 64"/>
-              <a:gd name="T69" fmla="*/ 16 h 64"/>
-              <a:gd name="T70" fmla="*/ 0 w 64"/>
-              <a:gd name="T71" fmla="*/ 16 h 64"/>
-              <a:gd name="T72" fmla="*/ 0 w 64"/>
-              <a:gd name="T73" fmla="*/ 15 h 64"/>
-              <a:gd name="T74" fmla="*/ 0 w 64"/>
-              <a:gd name="T75" fmla="*/ 15 h 64"/>
-              <a:gd name="T76" fmla="*/ 0 w 64"/>
-              <a:gd name="T77" fmla="*/ 14 h 64"/>
-              <a:gd name="T78" fmla="*/ 0 w 64"/>
-              <a:gd name="T79" fmla="*/ 13 h 64"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="T0" y="T1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T2" y="T3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T4" y="T5"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T6" y="T7"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T8" y="T9"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T10" y="T11"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T12" y="T13"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T14" y="T15"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T16" y="T17"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T18" y="T19"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T20" y="T21"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T22" y="T23"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T24" y="T25"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T26" y="T27"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T28" y="T29"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T30" y="T31"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T32" y="T33"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T34" y="T35"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T36" y="T37"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T38" y="T39"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T40" y="T41"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T42" y="T43"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T44" y="T45"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T46" y="T47"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T48" y="T49"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T50" y="T51"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T52" y="T53"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T54" y="T55"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T56" y="T57"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T58" y="T59"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T60" y="T61"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T62" y="T63"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T64" y="T65"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T66" y="T67"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T68" y="T69"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T70" y="T71"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T72" y="T73"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T74" y="T75"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T76" y="T77"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T78" y="T79"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="0" t="0" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="64" h="64">
-                <a:moveTo>
-                  <a:pt x="0" y="13"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="1" y="13"/>
-                  <a:pt x="0" y="13"/>
-                  <a:pt x="1" y="12"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="1" y="11"/>
-                  <a:pt x="1" y="11"/>
-                  <a:pt x="2" y="10"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="5" y="7"/>
-                  <a:pt x="8" y="4"/>
-                  <a:pt x="11" y="1"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="12" y="0"/>
-                  <a:pt x="14" y="0"/>
-                  <a:pt x="15" y="0"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="15" y="1"/>
-                  <a:pt x="16" y="1"/>
-                  <a:pt x="16" y="2"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="18" y="6"/>
-                  <a:pt x="21" y="11"/>
-                  <a:pt x="23" y="15"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="24" y="17"/>
-                  <a:pt x="24" y="18"/>
-                  <a:pt x="23" y="20"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="21" y="21"/>
-                  <a:pt x="20" y="22"/>
-                  <a:pt x="19" y="23"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="19" y="23"/>
-                  <a:pt x="19" y="24"/>
-                  <a:pt x="19" y="25"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="19" y="26"/>
-                  <a:pt x="20" y="28"/>
-                  <a:pt x="21" y="29"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="22" y="31"/>
-                  <a:pt x="24" y="33"/>
-                  <a:pt x="25" y="35"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="28" y="38"/>
-                  <a:pt x="31" y="41"/>
-                  <a:pt x="34" y="43"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="36" y="44"/>
-                  <a:pt x="37" y="45"/>
-                  <a:pt x="39" y="45"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="45"/>
-                  <a:pt x="40" y="45"/>
-                  <a:pt x="41" y="45"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="42" y="43"/>
-                  <a:pt x="43" y="42"/>
-                  <a:pt x="44" y="41"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="46" y="40"/>
-                  <a:pt x="48" y="39"/>
-                  <a:pt x="50" y="40"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="54" y="43"/>
-                  <a:pt x="58" y="45"/>
-                  <a:pt x="62" y="48"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="63" y="48"/>
-                  <a:pt x="64" y="49"/>
-                  <a:pt x="64" y="50"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="64" y="51"/>
-                  <a:pt x="64" y="52"/>
-                  <a:pt x="63" y="52"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="63" y="53"/>
-                  <a:pt x="63" y="53"/>
-                  <a:pt x="63" y="53"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="60" y="56"/>
-                  <a:pt x="57" y="59"/>
-                  <a:pt x="54" y="61"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="53" y="62"/>
-                  <a:pt x="52" y="63"/>
-                  <a:pt x="50" y="63"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="50" y="63"/>
-                  <a:pt x="50" y="64"/>
-                  <a:pt x="50" y="64"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="50" y="64"/>
-                  <a:pt x="50" y="64"/>
-                  <a:pt x="50" y="64"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="49" y="63"/>
-                  <a:pt x="49" y="63"/>
-                  <a:pt x="49" y="64"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="48" y="64"/>
-                  <a:pt x="48" y="64"/>
-                  <a:pt x="48" y="64"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="46" y="63"/>
-                  <a:pt x="45" y="63"/>
-                  <a:pt x="43" y="63"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="40" y="62"/>
-                  <a:pt x="37" y="61"/>
-                  <a:pt x="35" y="60"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="32" y="58"/>
-                  <a:pt x="29" y="56"/>
-                  <a:pt x="26" y="54"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="25" y="53"/>
-                  <a:pt x="23" y="52"/>
-                  <a:pt x="21" y="50"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="20" y="49"/>
-                  <a:pt x="18" y="47"/>
-                  <a:pt x="16" y="45"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="12" y="41"/>
-                  <a:pt x="8" y="37"/>
-                  <a:pt x="6" y="32"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="3" y="28"/>
-                  <a:pt x="1" y="23"/>
-                  <a:pt x="1" y="19"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="18"/>
-                  <a:pt x="0" y="17"/>
-                  <a:pt x="0" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="16"/>
-                  <a:pt x="0" y="16"/>
-                  <a:pt x="0" y="16"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="16"/>
-                  <a:pt x="0" y="16"/>
-                  <a:pt x="0" y="15"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="15"/>
-                  <a:pt x="0" y="15"/>
-                  <a:pt x="0" y="15"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="15"/>
-                  <a:pt x="0" y="15"/>
-                  <a:pt x="0" y="14"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="14"/>
-                  <a:pt x="0" y="14"/>
-                  <a:pt x="0" y="13"/>
-                </a:cubicBezTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:txBody>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="6" name="Freeform 24">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="253" y="249"/>
-            <a:ext cx="0" cy="239"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="T0" fmla="*/ 0 h 1"/>
-              <a:gd name="T1" fmla="*/ 1 h 1"/>
-              <a:gd name="T2" fmla="*/ 0 h 1"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="0" y="T0"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="0" y="T1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="0" y="T2"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="0" t="0" r="r" b="b"/>
-            <a:pathLst>
-              <a:path h="1">
-                <a:moveTo>
-                  <a:pt x="0" y="0"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="0"/>
-                </a:cubicBezTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="7" name="Freeform 25">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr>
-            <a:spLocks/>
-          </xdr:cNvSpPr>
-        </xdr:nvSpPr>
-        <xdr:spPr bwMode="auto">
-          <a:xfrm>
-            <a:off x="272" y="269"/>
-            <a:ext cx="0" cy="238"/>
-          </a:xfrm>
-          <a:custGeom>
-            <a:avLst/>
-            <a:gdLst>
-              <a:gd name="T0" fmla="*/ 0 w 1"/>
-              <a:gd name="T1" fmla="*/ 1 h 1"/>
-              <a:gd name="T2" fmla="*/ 1 w 1"/>
-              <a:gd name="T3" fmla="*/ 1 h 1"/>
-              <a:gd name="T4" fmla="*/ 0 w 1"/>
-              <a:gd name="T5" fmla="*/ 1 h 1"/>
-            </a:gdLst>
-            <a:ahLst/>
-            <a:cxnLst>
-              <a:cxn ang="0">
-                <a:pos x="T0" y="T1"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T2" y="T3"/>
-              </a:cxn>
-              <a:cxn ang="0">
-                <a:pos x="T4" y="T5"/>
-              </a:cxn>
-            </a:cxnLst>
-            <a:rect l="0" t="0" r="r" b="b"/>
-            <a:pathLst>
-              <a:path w="1" h="1">
-                <a:moveTo>
-                  <a:pt x="0" y="1"/>
-                </a:moveTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="0"/>
-                  <a:pt x="0" y="0"/>
-                  <a:pt x="1" y="1"/>
-                </a:cubicBezTo>
-                <a:cubicBezTo>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                  <a:pt x="0" y="1"/>
-                </a:cubicBezTo>
-                <a:close/>
-              </a:path>
-            </a:pathLst>
-          </a:custGeom>
-          <a:solidFill>
-            <a:srgbClr val="FFFFFF"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:extLst>
-            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:round/>
-                <a:headEnd/>
-                <a:tailEnd/>
-              </a14:hiddenLine>
-            </a:ext>
-          </a:extLst>
-        </xdr:spPr>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="8" name="Freeform 26">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                 <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
@@ -9369,1329 +9369,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:H57"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-    </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
-        <v>1</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6">
-        <v>915</v>
-      </c>
-      <c r="D5" s="6">
-        <v>980</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>2</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1060</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1140</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19">
-        <v>3</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1060</v>
-      </c>
-      <c r="D7" s="7">
-        <v>1140</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19">
-        <v>4</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="7">
-        <v>1070</v>
-      </c>
-      <c r="D8" s="7">
-        <v>1150</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>5</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="C9" s="7">
-        <v>1020</v>
-      </c>
-      <c r="D9" s="7">
-        <v>1099</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>6</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="7">
-        <v>1150</v>
-      </c>
-      <c r="D10" s="7">
-        <v>1240</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>7</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1160</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1250</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>8</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1290</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="19"/>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>9</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1150</v>
-      </c>
-      <c r="D13" s="7">
-        <v>1240</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>10</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="7">
-        <v>1250</v>
-      </c>
-      <c r="D14" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>11</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1460</v>
-      </c>
-      <c r="D15" s="7">
-        <v>1570</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>12</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="7">
-        <v>1130</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1199</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>13</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1095</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1170</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>15</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1030</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1120</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G18" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>16</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="19"/>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>17</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1270</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1350</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1220</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1299</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G21" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21" s="19"/>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19">
-        <v>19</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1360</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1440</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19">
-        <v>20</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1280</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1370</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C24" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1430</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19">
-        <v>22</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" s="7">
-        <v>1340</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1450</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G25" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H25" s="19" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19">
-        <v>23</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1499</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="19"/>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19">
-        <v>24</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1440</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1540</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19">
-        <v>25</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="7">
-        <v>1240</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1320</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>26</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="7">
-        <v>1220</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1320</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
-        <v>1</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D32" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="19" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>2</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="C33" s="7">
-        <v>7240</v>
-      </c>
-      <c r="D33" s="7">
-        <v>7790</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19">
-        <v>3</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="C34" s="7">
-        <v>4050</v>
-      </c>
-      <c r="D34" s="7">
-        <v>4290</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="19">
-        <v>4</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C35" s="7">
-        <v>4150</v>
-      </c>
-      <c r="D35" s="7">
-        <v>4390</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G35" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19">
-        <v>5</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" s="7">
-        <v>5370</v>
-      </c>
-      <c r="D36" s="7">
-        <v>5699</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G36" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="19">
-        <v>6</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="C37" s="7">
-        <v>5750</v>
-      </c>
-      <c r="D37" s="7">
-        <v>6190</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>7</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="7">
-        <v>5940</v>
-      </c>
-      <c r="D38" s="7">
-        <v>6390</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>8</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="7">
-        <v>6470</v>
-      </c>
-      <c r="D39" s="7">
-        <v>6990</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="19">
-        <v>9</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="7">
-        <v>6570</v>
-      </c>
-      <c r="D40" s="7">
-        <v>6990</v>
-      </c>
-      <c r="E40" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>10</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="7">
-        <v>3640</v>
-      </c>
-      <c r="D41" s="7">
-        <v>3890</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="19">
-        <v>11</v>
-      </c>
-      <c r="B42" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="7">
-        <v>3890</v>
-      </c>
-      <c r="D42" s="7">
-        <v>4190</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>12</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="7">
-        <v>7350</v>
-      </c>
-      <c r="D43" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="19">
-        <v>13</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="7">
-        <v>7790</v>
-      </c>
-      <c r="D44" s="7">
-        <v>8290</v>
-      </c>
-      <c r="E44" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G44" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="19">
-        <v>14</v>
-      </c>
-      <c r="B45" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="C45" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D45" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E45" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G45" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H45" s="19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="19">
-        <v>15</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C46" s="7">
-        <v>7800</v>
-      </c>
-      <c r="D46" s="7">
-        <v>8390</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>16</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C47" s="7">
-        <v>7980</v>
-      </c>
-      <c r="D47" s="7">
-        <v>8490</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>17</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C48" s="7">
-        <v>9300</v>
-      </c>
-      <c r="D48" s="7">
-        <v>9790</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19">
-        <v>18</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="7">
-        <v>10130</v>
-      </c>
-      <c r="D49" s="7">
-        <v>10890</v>
-      </c>
-      <c r="E49" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G49" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="19">
-        <v>19</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="C50" s="7">
-        <v>7980</v>
-      </c>
-      <c r="D50" s="7">
-        <v>8590</v>
-      </c>
-      <c r="E50" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G50" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="H50" s="19"/>
-    </row>
-    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="19">
-        <v>20</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C51" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D51" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E51" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="H51" s="19"/>
-    </row>
-    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="19">
-        <v>21</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="24">
-        <v>10230</v>
-      </c>
-      <c r="D52" s="24">
-        <v>10990</v>
-      </c>
-      <c r="E52" s="25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F52" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="G52" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="H52" s="25"/>
-    </row>
-    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="19">
-        <v>22</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C53" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D53" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E53" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="G53" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="H53" s="19"/>
-    </row>
-    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="19">
-        <v>23</v>
-      </c>
-      <c r="B54" s="20"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="5"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-    </row>
-    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
-        <v>8801717436223</v>
-      </c>
-      <c r="B55" s="41"/>
-      <c r="C55" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="33"/>
-    </row>
-    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="42"/>
-      <c r="B56" s="43"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="32"/>
-      <c r="B57" s="32"/>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32"/>
-      <c r="E57" s="32"/>
-      <c r="F57" s="32"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="32"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A57:H57"/>
-    <mergeCell ref="G55:H56"/>
-    <mergeCell ref="C55:F56"/>
-    <mergeCell ref="A55:B56"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H35"/>
@@ -10714,40 +9391,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -11416,30 +10093,30 @@
       <c r="H32" s="19"/>
     </row>
     <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
+      <c r="A33" s="36">
         <v>8801717436223</v>
       </c>
-      <c r="B33" s="41"/>
-      <c r="C33" s="34" t="s">
+      <c r="B33" s="37"/>
+      <c r="C33" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="33" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="33"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="33"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="45"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="32"/>
@@ -11468,7 +10145,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -11703,6 +10380,1329 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="17" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29" style="17" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+    </row>
+    <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>1</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6">
+        <v>915</v>
+      </c>
+      <c r="D5" s="6">
+        <v>980</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="19"/>
+    </row>
+    <row r="6" spans="1:8" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1060</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1140</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="19">
+        <v>3</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1140</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19">
+        <v>4</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>1070</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1150</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="19">
+        <v>5</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1020</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1099</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1150</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="19">
+        <v>7</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="7">
+        <v>1160</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1250</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>8</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1290</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1150</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1240</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>10</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19">
+        <v>11</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1460</v>
+      </c>
+      <c r="D15" s="7">
+        <v>1570</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="19"/>
+    </row>
+    <row r="16" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19">
+        <v>12</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7">
+        <v>1130</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1199</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="19"/>
+    </row>
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>13</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1095</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1170</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="19"/>
+    </row>
+    <row r="18" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
+        <v>15</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C18" s="7">
+        <v>1030</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1120</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="19"/>
+    </row>
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>16</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H19" s="19"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>17</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1270</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1350</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="19"/>
+    </row>
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19">
+        <v>18</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="7">
+        <v>1220</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="19"/>
+    </row>
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19">
+        <v>19</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1360</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1440</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="19"/>
+    </row>
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
+        <v>20</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1280</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1370</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>21</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1430</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="19"/>
+    </row>
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>22</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="7">
+        <v>1340</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1450</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19">
+        <v>23</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1499</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H26" s="19"/>
+    </row>
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>24</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1440</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1540</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="19"/>
+    </row>
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>25</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="7">
+        <v>1240</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H28" s="19"/>
+    </row>
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19">
+        <v>26</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1220</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1320</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="19"/>
+    </row>
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+    </row>
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>1</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>2</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="7">
+        <v>7240</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7790</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>3</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="C34" s="7">
+        <v>4050</v>
+      </c>
+      <c r="D34" s="7">
+        <v>4290</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>4</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C35" s="7">
+        <v>4150</v>
+      </c>
+      <c r="D35" s="7">
+        <v>4390</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>5</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="7">
+        <v>5370</v>
+      </c>
+      <c r="D36" s="7">
+        <v>5699</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="19">
+        <v>6</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="7">
+        <v>5750</v>
+      </c>
+      <c r="D37" s="7">
+        <v>6190</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H37" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>7</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="7">
+        <v>5940</v>
+      </c>
+      <c r="D38" s="7">
+        <v>6390</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="H38" s="19"/>
+    </row>
+    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>8</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="7">
+        <v>6470</v>
+      </c>
+      <c r="D39" s="7">
+        <v>6990</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="19"/>
+    </row>
+    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19">
+        <v>9</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="C40" s="7">
+        <v>6570</v>
+      </c>
+      <c r="D40" s="7">
+        <v>6990</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H40" s="19"/>
+    </row>
+    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>10</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" s="7">
+        <v>3640</v>
+      </c>
+      <c r="D41" s="7">
+        <v>3890</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="19"/>
+    </row>
+    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19">
+        <v>11</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3890</v>
+      </c>
+      <c r="D42" s="7">
+        <v>4190</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="19"/>
+    </row>
+    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>12</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="7">
+        <v>7350</v>
+      </c>
+      <c r="D43" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G43" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="19"/>
+    </row>
+    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="19">
+        <v>13</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C44" s="7">
+        <v>7790</v>
+      </c>
+      <c r="D44" s="7">
+        <v>8290</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H44" s="19"/>
+    </row>
+    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>14</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D45" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H45" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19">
+        <v>15</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="7">
+        <v>7800</v>
+      </c>
+      <c r="D46" s="7">
+        <v>8390</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="19"/>
+    </row>
+    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>16</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C47" s="7">
+        <v>7980</v>
+      </c>
+      <c r="D47" s="7">
+        <v>8490</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H47" s="19"/>
+    </row>
+    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>17</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C48" s="7">
+        <v>9300</v>
+      </c>
+      <c r="D48" s="7">
+        <v>9790</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H48" s="19"/>
+    </row>
+    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>18</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C49" s="7">
+        <v>10130</v>
+      </c>
+      <c r="D49" s="7">
+        <v>10890</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="H49" s="19"/>
+    </row>
+    <row r="50" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="19">
+        <v>19</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="7">
+        <v>7980</v>
+      </c>
+      <c r="D50" s="7">
+        <v>8590</v>
+      </c>
+      <c r="E50" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G50" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" s="19"/>
+    </row>
+    <row r="51" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
+        <v>20</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C51" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D51" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E51" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="H51" s="19"/>
+    </row>
+    <row r="52" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="19">
+        <v>21</v>
+      </c>
+      <c r="B52" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="24">
+        <v>10230</v>
+      </c>
+      <c r="D52" s="24">
+        <v>10990</v>
+      </c>
+      <c r="E52" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F52" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="G52" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>22</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D53" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="19"/>
+    </row>
+    <row r="54" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="19">
+        <v>23</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+    </row>
+    <row r="55" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36">
+        <v>8801717436223</v>
+      </c>
+      <c r="B55" s="37"/>
+      <c r="C55" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="46"/>
+    </row>
+    <row r="56" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="43"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="45"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="46"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="32"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="32"/>
+      <c r="F57" s="32"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A57:H57"/>
+    <mergeCell ref="G55:H56"/>
+    <mergeCell ref="C55:F56"/>
+    <mergeCell ref="A55:B56"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:H3"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="77" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -11727,40 +11727,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -12371,26 +12371,26 @@
         <v>8801717436223</v>
       </c>
       <c r="B29" s="48"/>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="33" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="33"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="49"/>
       <c r="B30" s="50"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="32"/>
@@ -12438,40 +12438,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -13030,26 +13030,26 @@
         <v>8801717436223</v>
       </c>
       <c r="B27" s="48"/>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="40" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="33" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="33"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="49"/>
       <c r="B28" s="50"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="33"/>
-      <c r="H28" s="33"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="32"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -495,7 +495,7 @@
     <t>B69</t>
   </si>
   <si>
-    <t>Last Updated on: 18/07/2021</t>
+    <t>Last Updated on: 19/07/2021</t>
   </si>
 </sst>
 </file>
@@ -10392,8 +10392,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K60" sqref="K60"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -495,7 +495,7 @@
     <t>B69</t>
   </si>
   <si>
-    <t>Last Updated on: 19/07/2021</t>
+    <t>Last Updated on: 28/07/2021</t>
   </si>
 </sst>
 </file>
@@ -10392,8 +10392,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K17" sqref="K17"/>
+      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -495,7 +495,7 @@
     <t>B69</t>
   </si>
   <si>
-    <t>Last Updated on: 28/07/2021</t>
+    <t>Last Updated on: 09/08/2021</t>
   </si>
 </sst>
 </file>
@@ -10392,8 +10392,8 @@
   <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="152">
   <si>
     <t>Model Name</t>
   </si>
@@ -495,7 +495,10 @@
     <t>B69</t>
   </si>
   <si>
-    <t>Last Updated on: 09/08/2021</t>
+    <t>New Price update 10-08-2021</t>
+  </si>
+  <si>
+    <t>Last Updated on: 12/08/2021</t>
   </si>
 </sst>
 </file>
@@ -10393,7 +10396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
+      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10435,7 +10438,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -10517,9 +10520,7 @@
       <c r="G6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="H6" s="19"/>
     </row>
     <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
@@ -10569,9 +10570,7 @@
       <c r="G8" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="19" t="s">
-        <v>135</v>
-      </c>
+      <c r="H8" s="19"/>
     </row>
     <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
@@ -10683,10 +10682,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1150</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="7">
-        <v>1240</v>
+        <v>1290</v>
       </c>
       <c r="E13" s="19" t="s">
         <v>33</v>
@@ -10697,7 +10696,9 @@
       <c r="G13" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="19"/>
+      <c r="H13" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
@@ -10877,10 +10878,10 @@
         <v>74</v>
       </c>
       <c r="C21" s="7">
-        <v>1220</v>
+        <v>1250</v>
       </c>
       <c r="D21" s="7">
-        <v>1299</v>
+        <v>1340</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>33</v>
@@ -10891,7 +10892,9 @@
       <c r="G21" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="19"/>
+      <c r="H21" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
@@ -10925,10 +10928,10 @@
         <v>141</v>
       </c>
       <c r="C23" s="7">
-        <v>1280</v>
+        <v>1300</v>
       </c>
       <c r="D23" s="7">
-        <v>1370</v>
+        <v>1399</v>
       </c>
       <c r="E23" s="19" t="s">
         <v>33</v>
@@ -10939,7 +10942,9 @@
       <c r="G23" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="19"/>
+      <c r="H23" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
@@ -11047,10 +11052,10 @@
         <v>20</v>
       </c>
       <c r="C28" s="7">
-        <v>1240</v>
+        <v>1330</v>
       </c>
       <c r="D28" s="7">
-        <v>1320</v>
+        <v>1420</v>
       </c>
       <c r="E28" s="19" t="s">
         <v>50</v>
@@ -11061,7 +11066,9 @@
       <c r="G28" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="19"/>
+      <c r="H28" s="19" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="19">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -498,7 +498,7 @@
     <t>New Price update 10-08-2021</t>
   </si>
   <si>
-    <t>Last Updated on: 12/08/2021</t>
+    <t>Last Updated on: 14/08/2021</t>
   </si>
 </sst>
 </file>
@@ -10396,7 +10396,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O12" sqref="O12"/>
+      <selection pane="bottomLeft" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Symphony" sheetId="3" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
   <si>
     <t>Model Name</t>
   </si>
@@ -56,9 +56,6 @@
     <t>L42</t>
   </si>
   <si>
-    <t>L45</t>
-  </si>
-  <si>
     <t>L95</t>
   </si>
   <si>
@@ -110,24 +107,9 @@
     <t>2000mAh</t>
   </si>
   <si>
-    <t>5.4''</t>
-  </si>
-  <si>
-    <t>2400mAh</t>
-  </si>
-  <si>
-    <t>5.45''</t>
-  </si>
-  <si>
     <t>3200mAh</t>
   </si>
   <si>
-    <t>5.99''</t>
-  </si>
-  <si>
-    <t>3700mAh</t>
-  </si>
-  <si>
     <t>3000mAh</t>
   </si>
   <si>
@@ -164,9 +146,6 @@
     <t>5MP+5MP</t>
   </si>
   <si>
-    <t>8MP+5MP</t>
-  </si>
-  <si>
     <t>8MP+8MP</t>
   </si>
   <si>
@@ -179,9 +158,6 @@
     <t>5MP+2MP</t>
   </si>
   <si>
-    <t>5MP+5MP+2MP+13MP</t>
-  </si>
-  <si>
     <t>8MP+2MP+5MP+13MP</t>
   </si>
   <si>
@@ -219,9 +195,6 @@
   </si>
   <si>
     <t>mugdhocorporation@gmail.com</t>
-  </si>
-  <si>
-    <t>Komola Super Market, Alaipur, Natore.</t>
   </si>
   <si>
     <t>6.55"</t>
@@ -362,36 +335,21 @@
     <t>ATOM_2  (2GB+32GB)</t>
   </si>
   <si>
-    <t>Z16  (2GB+32GB)</t>
-  </si>
-  <si>
     <t>Z12  (2GB+16GB)</t>
   </si>
   <si>
-    <t>i12  (1GB+8GB)</t>
-  </si>
-  <si>
-    <t>i30  (1GB16GB)</t>
-  </si>
-  <si>
     <t>G10  (1GB+8GB)</t>
   </si>
   <si>
     <t>i67  (2GB+16GB)</t>
   </si>
   <si>
-    <t>i74  (2GB+16GB)</t>
-  </si>
-  <si>
     <t>i97  (2GB+16GB)</t>
   </si>
   <si>
     <t>i99  (2GB+16GB)</t>
   </si>
   <si>
-    <t>V99+  (1GB+8GB)</t>
-  </si>
-  <si>
     <t xml:space="preserve">13MP+2MP+2MP+8MP   </t>
   </si>
   <si>
@@ -419,16 +377,31 @@
     <t>B69</t>
   </si>
   <si>
-    <t>New Price update 10-08-2021</t>
-  </si>
-  <si>
-    <t>Last Updated on: 15/08/2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Update Date </t>
-  </si>
-  <si>
     <t xml:space="preserve"> Price List of Symphony Mobile</t>
+  </si>
+  <si>
+    <t>BL99</t>
+  </si>
+  <si>
+    <t>D78</t>
+  </si>
+  <si>
+    <t>L43</t>
+  </si>
+  <si>
+    <t>G10+  (1GB+16GB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5'' </t>
+  </si>
+  <si>
+    <t>Last Updated on: 19/08/2021</t>
+  </si>
+  <si>
+    <t>+8801717436223</t>
+  </si>
+  <si>
+    <t>Komola Super Market,Alaipur, Natore.</t>
   </si>
 </sst>
 </file>
@@ -670,7 +643,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -730,46 +703,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -781,7 +730,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -807,15 +774,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>84431</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>31599</xdr:rowOff>
+      <xdr:colOff>204721</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>755586</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>124436</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>387219</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -832,10 +799,10 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="84431" y="11280624"/>
-          <a:ext cx="5366980" cy="302387"/>
-          <a:chOff x="242" y="249"/>
-          <a:chExt cx="354" cy="300"/>
+          <a:off x="204721" y="10604349"/>
+          <a:ext cx="4754498" cy="260052"/>
+          <a:chOff x="249" y="249"/>
+          <a:chExt cx="272" cy="258"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
@@ -853,8 +820,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="374" y="275"/>
-            <a:ext cx="11" cy="255"/>
+            <a:off x="343" y="338"/>
+            <a:ext cx="8" cy="141"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -1059,8 +1026,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="583" y="320"/>
-            <a:ext cx="13" cy="229"/>
+            <a:off x="512" y="320"/>
+            <a:ext cx="9" cy="162"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -2160,8 +2127,8 @@
         </xdr:nvSpPr>
         <xdr:spPr bwMode="auto">
           <a:xfrm>
-            <a:off x="242" y="294"/>
-            <a:ext cx="14" cy="226"/>
+            <a:off x="249" y="330"/>
+            <a:ext cx="8" cy="163"/>
           </a:xfrm>
           <a:custGeom>
             <a:avLst/>
@@ -3178,65 +3145,61 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L49:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.85546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.42578125" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="17" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="17" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="17" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="17"/>
+    <col min="2" max="2" width="23.140625" style="17" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="17" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="22" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" style="17" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-    </row>
-    <row r="4" spans="1:8" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3248,19 +3211,16 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>1</v>
       </c>
@@ -3268,28 +3228,27 @@
         <v>3</v>
       </c>
       <c r="C5" s="6">
-        <v>1060</v>
+        <v>1000</v>
       </c>
       <c r="D5" s="6">
-        <v>1140</v>
+        <v>1080</v>
       </c>
       <c r="E5" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="19"/>
-    </row>
-    <row r="6" spans="1:8" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C6" s="7">
         <v>1060</v>
@@ -3298,17 +3257,16 @@
         <v>1140</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="19"/>
-    </row>
-    <row r="7" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
@@ -3316,28 +3274,27 @@
         <v>4</v>
       </c>
       <c r="C7" s="7">
-        <v>1070</v>
+        <v>1010</v>
       </c>
       <c r="D7" s="7">
-        <v>1150</v>
+        <v>1090</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C8" s="7">
         <v>1020</v>
@@ -3346,17 +3303,16 @@
         <v>1099</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>5</v>
       </c>
@@ -3370,17 +3326,16 @@
         <v>1240</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G9" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="19"/>
-    </row>
-    <row r="10" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>6</v>
       </c>
@@ -3394,554 +3349,536 @@
         <v>1250</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="19"/>
-    </row>
-    <row r="11" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1290</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="19"/>
-    </row>
-    <row r="12" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="33">
+        <v>1060</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1150</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="7">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="D12" s="7">
         <v>1290</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>124</v>
+        <v>8</v>
       </c>
       <c r="C13" s="7">
-        <v>1250</v>
+        <v>1200</v>
       </c>
       <c r="D13" s="7">
-        <v>1350</v>
+        <v>1290</v>
       </c>
       <c r="E13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="G13" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="19"/>
-    </row>
-    <row r="14" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C14" s="7">
-        <v>1460</v>
+        <v>1250</v>
       </c>
       <c r="D14" s="7">
-        <v>1570</v>
+        <v>1350</v>
       </c>
       <c r="E14" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="19"/>
-    </row>
-    <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19">
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>9</v>
+        <v>105</v>
       </c>
       <c r="C15" s="7">
-        <v>1130</v>
+        <v>1460</v>
       </c>
       <c r="D15" s="7">
-        <v>1199</v>
+        <v>1570</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="19"/>
-    </row>
-    <row r="16" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19">
         <v>12</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="7">
-        <v>1095</v>
+        <v>1130</v>
       </c>
       <c r="D16" s="7">
-        <v>1170</v>
+        <v>1199</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="19"/>
-    </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1210</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="B17" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="33">
+        <v>1200</v>
+      </c>
+      <c r="D17" s="33">
         <v>1299</v>
       </c>
-      <c r="E17" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="F17" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="19"/>
-    </row>
-    <row r="18" spans="1:8" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C18" s="7">
-        <v>1270</v>
+        <v>1095</v>
       </c>
       <c r="D18" s="7">
-        <v>1350</v>
+        <v>1170</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" s="19"/>
-    </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="C19" s="7">
-        <v>1250</v>
+        <v>1210</v>
       </c>
       <c r="D19" s="7">
-        <v>1340</v>
+        <v>1299</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H19" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1360</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1440</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="5" t="s">
+      <c r="B20" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="33">
+        <v>1250</v>
+      </c>
+      <c r="D20" s="33">
+        <v>1350</v>
+      </c>
+      <c r="E20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="G20" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="19"/>
-    </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>121</v>
+        <v>56</v>
       </c>
       <c r="C21" s="7">
-        <v>1300</v>
+        <v>1250</v>
       </c>
       <c r="D21" s="7">
-        <v>1399</v>
+        <v>1340</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H21" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>18</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1340</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1430</v>
+        <v>12</v>
+      </c>
+      <c r="C22" s="7">
+        <v>1360</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1440</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H22" s="19"/>
-    </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>19</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C23" s="7">
-        <v>1340</v>
+        <v>1300</v>
       </c>
       <c r="D23" s="7">
-        <v>1450</v>
+        <v>1399</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="19"/>
-    </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>20</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>120</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1400</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1499</v>
+        <v>54</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1430</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="19"/>
-    </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19">
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C25" s="7">
-        <v>1440</v>
+        <v>1340</v>
       </c>
       <c r="D25" s="7">
-        <v>1540</v>
+        <v>1450</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="G25" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H25" s="19"/>
-    </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="19">
         <v>22</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>14</v>
+        <v>106</v>
       </c>
       <c r="C26" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1499</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="19">
+        <v>23</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="7">
+        <v>1440</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1540</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>24</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="7">
         <v>1330</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D28" s="7">
         <v>1420</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="5" t="s">
+      <c r="E28" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="19"/>
+    </row>
+    <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>1</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D30" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>2</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7240</v>
+      </c>
+      <c r="D31" s="7">
+        <v>7790</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>3</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7">
+        <v>4050</v>
+      </c>
+      <c r="D32" s="7">
+        <v>4290</v>
+      </c>
+      <c r="E32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="19" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-    </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-    </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19">
-        <v>1</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C29" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D29" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="19"/>
-    </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19">
-        <v>2</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="7">
-        <v>7240</v>
-      </c>
-      <c r="D30" s="7">
-        <v>7790</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H30" s="19"/>
-    </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19">
-        <v>3</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="7">
-        <v>4050</v>
-      </c>
-      <c r="D31" s="7">
-        <v>4290</v>
-      </c>
-      <c r="E31" s="19" t="s">
+      <c r="F32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H31" s="19"/>
-    </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19">
+      <c r="G32" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
         <v>4</v>
       </c>
-      <c r="B32" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="7">
-        <v>4150</v>
-      </c>
-      <c r="D32" s="7">
-        <v>4390</v>
-      </c>
-      <c r="E32" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G32" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>5</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="C33" s="7">
-        <v>5370</v>
-      </c>
-      <c r="D33" s="7">
-        <v>5699</v>
-      </c>
-      <c r="E33" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" s="19"/>
-    </row>
-    <row r="34" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C33" s="33">
+        <v>4840</v>
+      </c>
+      <c r="D33" s="33">
+        <v>5190</v>
+      </c>
+      <c r="E33" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="G33" s="23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C34" s="7">
         <v>5750</v>
@@ -3950,414 +3887,331 @@
         <v>6190</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="19"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C35" s="7">
-        <v>5940</v>
+        <v>6470</v>
       </c>
       <c r="D35" s="7">
-        <v>6390</v>
+        <v>6990</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="H35" s="19"/>
-    </row>
-    <row r="36" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C36" s="7">
-        <v>6470</v>
+        <v>6570</v>
       </c>
       <c r="D36" s="7">
         <v>6990</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F36" s="5" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="H36" s="19"/>
-    </row>
-    <row r="37" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7">
-        <v>6570</v>
+        <v>3890</v>
       </c>
       <c r="D37" s="7">
-        <v>6990</v>
+        <v>4190</v>
       </c>
       <c r="E37" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19">
+        <v>13</v>
+      </c>
+      <c r="B38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C38" s="7">
+        <v>7350</v>
+      </c>
+      <c r="D38" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E38" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="19">
+        <v>15</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D39" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E39" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G37" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H37" s="19"/>
-    </row>
-    <row r="38" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19">
-        <v>10</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C38" s="7">
-        <v>3640</v>
-      </c>
-      <c r="D38" s="7">
-        <v>3890</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="19"/>
-    </row>
-    <row r="39" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="19">
-        <v>11</v>
-      </c>
-      <c r="B39" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3890</v>
-      </c>
-      <c r="D39" s="7">
-        <v>4190</v>
-      </c>
-      <c r="E39" s="19" t="s">
-        <v>43</v>
-      </c>
       <c r="F39" s="5" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="19"/>
-    </row>
-    <row r="40" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="C40" s="7">
-        <v>7350</v>
+        <v>9300</v>
       </c>
       <c r="D40" s="7">
-        <v>7990</v>
+        <v>9790</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>17</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="7">
+        <v>10130</v>
+      </c>
+      <c r="D41" s="7">
+        <v>10890</v>
+      </c>
+      <c r="E41" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="G40" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="H40" s="19"/>
-    </row>
-    <row r="41" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="19">
-        <v>13</v>
-      </c>
-      <c r="B41" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C41" s="7">
-        <v>7790</v>
-      </c>
-      <c r="D41" s="7">
-        <v>8290</v>
-      </c>
-      <c r="E41" s="19" t="s">
-        <v>45</v>
-      </c>
       <c r="F41" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="H41" s="19"/>
-    </row>
-    <row r="42" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B42" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="7">
+        <v>7980</v>
+      </c>
+      <c r="D42" s="7">
+        <v>8590</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="19">
+        <v>19</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D43" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="7">
-        <v>7430</v>
-      </c>
-      <c r="D42" s="7">
-        <v>7990</v>
-      </c>
-      <c r="E42" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G42" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="19"/>
-    </row>
-    <row r="43" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="19">
-        <v>15</v>
-      </c>
-      <c r="B43" s="20" t="s">
-        <v>104</v>
-      </c>
-      <c r="C43" s="7">
-        <v>9300</v>
-      </c>
-      <c r="D43" s="7">
-        <v>9790</v>
-      </c>
-      <c r="E43" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H43" s="19"/>
-    </row>
-    <row r="44" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C44" s="7">
-        <v>10130</v>
+        <v>10230</v>
       </c>
       <c r="D44" s="7">
-        <v>10890</v>
+        <v>10990</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="H44" s="19"/>
-    </row>
-    <row r="45" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C45" s="7">
-        <v>7980</v>
+        <v>9290</v>
       </c>
       <c r="D45" s="7">
-        <v>8590</v>
+        <v>9990</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="H45" s="19"/>
-    </row>
-    <row r="46" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
-        <v>18</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C46" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D46" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="H46" s="19"/>
-    </row>
-    <row r="47" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="19">
-        <v>19</v>
-      </c>
-      <c r="B47" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C47" s="7">
-        <v>10230</v>
-      </c>
-      <c r="D47" s="7">
-        <v>10990</v>
-      </c>
-      <c r="E47" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="H47" s="19"/>
-    </row>
-    <row r="48" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19">
-        <v>20</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C48" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D48" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E48" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G48" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H48" s="19"/>
-    </row>
-    <row r="49" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="7"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-    </row>
-    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="26">
-        <v>8801717436223</v>
-      </c>
-      <c r="B50" s="27"/>
-      <c r="C50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="32"/>
-      <c r="G50" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="36"/>
-    </row>
-    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="33"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="23"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
+        <v>22</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="19"/>
+    </row>
+    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="35" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="36"/>
+      <c r="C47" s="25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G47" s="25"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="37"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="25"/>
+      <c r="G48" s="25"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
     <sortCondition ref="A29"/>
   </sortState>
   <mergeCells count="7">
-    <mergeCell ref="A52:H52"/>
-    <mergeCell ref="G50:H51"/>
-    <mergeCell ref="C50:F51"/>
-    <mergeCell ref="A50:B51"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A47:B48"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C47:E48"/>
+    <mergeCell ref="F47:G48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="84" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A47" numberStoredAsText="1"/>
+  </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -4366,7 +4220,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -4380,46 +4234,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="A1" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="A2" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4429,7 +4283,7 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4439,10 +4293,10 @@
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C7" s="11">
         <v>14540</v>
@@ -4453,10 +4307,10 @@
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C8" s="11">
         <v>8490</v>
@@ -4468,10 +4322,10 @@
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C9" s="11">
         <v>10320</v>
@@ -4483,10 +4337,10 @@
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C10" s="11">
         <v>11200</v>
@@ -4499,10 +4353,10 @@
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11">
         <v>13070</v>
@@ -4515,10 +4369,10 @@
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C12" s="11">
         <v>13990</v>
@@ -4543,10 +4397,10 @@
     </row>
     <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C15" s="11">
         <v>21270</v>
@@ -4555,10 +4409,10 @@
     </row>
     <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="C16" s="11">
         <v>25890</v>
@@ -4571,10 +4425,10 @@
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C17" s="11">
         <v>12240</v>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -395,13 +395,13 @@
     <t xml:space="preserve">5'' </t>
   </si>
   <si>
-    <t>Last Updated on: 19/08/2021</t>
-  </si>
-  <si>
     <t>+8801717436223</t>
   </si>
   <si>
     <t>Komola Super Market,Alaipur, Natore.</t>
+  </si>
+  <si>
+    <t>Last Updated on: 21/08/2021</t>
   </si>
 </sst>
 </file>
@@ -706,30 +706,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -737,6 +713,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -749,6 +728,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3148,8 +3148,8 @@
   <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L49:L50"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,37 +3165,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
+      <c r="A3" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3362,19 +3362,19 @@
       <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="25">
         <v>1060</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="25">
         <v>1150</v>
       </c>
       <c r="E11" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="23" t="s">
@@ -3500,19 +3500,19 @@
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="25">
         <v>1200</v>
       </c>
-      <c r="D17" s="33">
+      <c r="D17" s="25">
         <v>1299</v>
       </c>
       <c r="E17" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="34" t="s">
+      <c r="F17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="23" t="s">
@@ -3569,19 +3569,19 @@
       <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="24" t="s">
         <v>115</v>
       </c>
-      <c r="C20" s="33">
+      <c r="C20" s="25">
         <v>1250</v>
       </c>
-      <c r="D20" s="33">
+      <c r="D20" s="25">
         <v>1350</v>
       </c>
       <c r="E20" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="34" t="s">
+      <c r="F20" s="26" t="s">
         <v>22</v>
       </c>
       <c r="G20" s="23" t="s">
@@ -3854,19 +3854,19 @@
       <c r="A33" s="19">
         <v>4</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" s="24" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="33">
+      <c r="C33" s="25">
         <v>4840</v>
       </c>
-      <c r="D33" s="33">
+      <c r="D33" s="25">
         <v>5190</v>
       </c>
       <c r="E33" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="34" t="s">
+      <c r="F33" s="26" t="s">
         <v>21</v>
       </c>
       <c r="G33" s="23" t="s">
@@ -4161,37 +4161,37 @@
       <c r="G46" s="19"/>
     </row>
     <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D47" s="25"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="25" t="s">
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="25"/>
+      <c r="G47" s="35"/>
     </row>
     <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="37"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
+      <c r="A48" s="30"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="24"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
@@ -4234,28 +4234,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
   <si>
     <t>Model Name</t>
   </si>
@@ -365,9 +365,6 @@
     <t>L135</t>
   </si>
   <si>
-    <t>V105(1GB+8GB)</t>
-  </si>
-  <si>
     <t>2200mAh</t>
   </si>
   <si>
@@ -401,7 +398,19 @@
     <t>Komola Super Market,Alaipur, Natore.</t>
   </si>
   <si>
-    <t>Last Updated on: 21/08/2021</t>
+    <t>6.5"</t>
+  </si>
+  <si>
+    <t>8MP+5MP</t>
+  </si>
+  <si>
+    <t>Last Updated on: 26/08/2021</t>
+  </si>
+  <si>
+    <t>i32  (1GB+16GB)</t>
+  </si>
+  <si>
+    <t>V105  (1GB+8GB)</t>
   </si>
 </sst>
 </file>
@@ -553,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -638,12 +647,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,6 +761,9 @@
     <xf numFmtId="43" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -751,6 +800,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -775,13 +833,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>204721</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387219</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -799,7 +857,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="10604349"/>
+          <a:off x="204721" y="10832949"/>
           <a:ext cx="4754498" cy="260052"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="272" cy="258"/>
@@ -3145,11 +3203,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3165,37 +3223,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
+      <c r="A2" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
+      <c r="A3" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3294,7 +3352,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7">
         <v>1020</v>
@@ -3363,7 +3421,7 @@
         <v>7</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="25">
         <v>1060</v>
@@ -3432,7 +3490,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C14" s="7">
         <v>1250</v>
@@ -3501,7 +3559,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="25">
         <v>1200</v>
@@ -3570,7 +3628,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C20" s="25">
         <v>1250</v>
@@ -3773,13 +3831,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="19"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="42"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -3855,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C33" s="25">
         <v>4840</v>
@@ -3864,7 +3922,7 @@
         <v>5190</v>
       </c>
       <c r="E33" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" s="26" t="s">
         <v>21</v>
@@ -3875,154 +3933,154 @@
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>7</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="7">
-        <v>5750</v>
-      </c>
-      <c r="D34" s="7">
-        <v>6190</v>
-      </c>
-      <c r="E34" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="G34" s="19" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C34" s="25">
+        <v>5290</v>
+      </c>
+      <c r="D34" s="25">
+        <v>5690</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="27" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="7">
-        <v>6470</v>
+        <v>5750</v>
       </c>
       <c r="D35" s="7">
-        <v>6990</v>
+        <v>6190</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="7">
-        <v>6570</v>
+        <v>6470</v>
       </c>
       <c r="D36" s="7">
         <v>6990</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C37" s="7">
-        <v>3890</v>
+        <v>6570</v>
       </c>
       <c r="D37" s="7">
-        <v>4190</v>
+        <v>6990</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>109</v>
+        <v>33</v>
       </c>
       <c r="G37" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="C38" s="7">
-        <v>7350</v>
+        <v>3890</v>
       </c>
       <c r="D38" s="7">
-        <v>7990</v>
+        <v>4190</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>33</v>
+        <v>108</v>
       </c>
       <c r="G38" s="19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C39" s="7">
-        <v>7430</v>
+        <v>7350</v>
       </c>
       <c r="D39" s="7">
         <v>7990</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C40" s="7">
-        <v>9300</v>
+        <v>7430</v>
       </c>
       <c r="D40" s="7">
-        <v>9790</v>
+        <v>7990</v>
       </c>
       <c r="E40" s="19" t="s">
         <v>39</v>
@@ -4031,21 +4089,21 @@
         <v>40</v>
       </c>
       <c r="G40" s="19" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="7">
-        <v>10130</v>
+        <v>9300</v>
       </c>
       <c r="D41" s="7">
-        <v>10890</v>
+        <v>9790</v>
       </c>
       <c r="E41" s="19" t="s">
         <v>39</v>
@@ -4059,16 +4117,16 @@
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C42" s="7">
-        <v>7980</v>
+        <v>10130</v>
       </c>
       <c r="D42" s="7">
-        <v>8590</v>
+        <v>10890</v>
       </c>
       <c r="E42" s="19" t="s">
         <v>39</v>
@@ -4077,140 +4135,164 @@
         <v>40</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C43" s="7">
-        <v>9290</v>
+        <v>7980</v>
       </c>
       <c r="D43" s="7">
-        <v>9990</v>
+        <v>8590</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>103</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C44" s="7">
-        <v>10230</v>
+        <v>9290</v>
       </c>
       <c r="D44" s="7">
-        <v>10990</v>
+        <v>9990</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>61</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="7">
-        <v>9290</v>
+        <v>10230</v>
       </c>
       <c r="D45" s="7">
-        <v>9990</v>
+        <v>10990</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
-        <v>22</v>
-      </c>
-      <c r="B46" s="20"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="19"/>
-    </row>
-    <row r="47" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D46" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>18</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="19"/>
+    </row>
+    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" s="30"/>
+      <c r="C48" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35" t="s">
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="G47" s="35"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="27"/>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
+      <c r="G48" s="36"/>
+    </row>
+    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36"/>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="36"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
     <sortCondition ref="A29"/>
   </sortState>
-  <mergeCells count="7">
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A47:B48"/>
+  <mergeCells count="8">
+    <mergeCell ref="A50:G50"/>
+    <mergeCell ref="A48:B49"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C47:E48"/>
-    <mergeCell ref="F47:G48"/>
+    <mergeCell ref="C48:E49"/>
+    <mergeCell ref="F48:G49"/>
+    <mergeCell ref="A29:G29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A47" numberStoredAsText="1"/>
+    <ignoredError sqref="A48" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4234,28 +4316,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -404,13 +404,13 @@
     <t>8MP+5MP</t>
   </si>
   <si>
-    <t>Last Updated on: 26/08/2021</t>
-  </si>
-  <si>
     <t>i32  (1GB+16GB)</t>
   </si>
   <si>
     <t>V105  (1GB+8GB)</t>
+  </si>
+  <si>
+    <t>Last Updated on: 29/08/2021</t>
   </si>
 </sst>
 </file>
@@ -791,6 +791,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -798,15 +807,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3206,8 +3206,8 @@
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J48" sqref="J48"/>
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -3831,13 +3831,13 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
@@ -3936,7 +3936,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="25">
         <v>5290</v>
@@ -4028,7 +4028,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C38" s="7">
         <v>3890</v>
@@ -4290,7 +4290,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A48" numberStoredAsText="1"/>
   </ignoredErrors>
@@ -4316,28 +4316,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
   <si>
     <t>Model Name</t>
   </si>
@@ -101,21 +101,9 @@
     <t>1200mAh</t>
   </si>
   <si>
-    <t>5''</t>
-  </si>
-  <si>
-    <t>2000mAh</t>
-  </si>
-  <si>
-    <t>3200mAh</t>
-  </si>
-  <si>
     <t>3000mAh</t>
   </si>
   <si>
-    <t>5.7''</t>
-  </si>
-  <si>
     <t>6.09''</t>
   </si>
   <si>
@@ -147,9 +135,6 @@
   </si>
   <si>
     <t>8MP+8MP</t>
-  </si>
-  <si>
-    <t>8MP+13MP</t>
   </si>
   <si>
     <t>8MP+2MP+13MP</t>
@@ -338,15 +323,9 @@
     <t>Z12  (2GB+16GB)</t>
   </si>
   <si>
-    <t>G10  (1GB+8GB)</t>
-  </si>
-  <si>
     <t>i67  (2GB+16GB)</t>
   </si>
   <si>
-    <t>i97  (2GB+16GB)</t>
-  </si>
-  <si>
     <t>i99  (2GB+16GB)</t>
   </si>
   <si>
@@ -410,7 +389,22 @@
     <t>V105  (1GB+8GB)</t>
   </si>
   <si>
-    <t>Last Updated on: 29/08/2021</t>
+    <t>D76</t>
+  </si>
+  <si>
+    <t>L44</t>
+  </si>
+  <si>
+    <t>L45</t>
+  </si>
+  <si>
+    <t>S45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Z33 (</t>
+  </si>
+  <si>
+    <t>Last Updated on: 04/09/2021</t>
   </si>
 </sst>
 </file>
@@ -749,9 +743,6 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -763,6 +754,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -833,13 +827,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>204721</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>41124</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>387219</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>91626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -857,7 +851,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="204721" y="10832949"/>
+          <a:off x="204721" y="11290149"/>
           <a:ext cx="4754498" cy="260052"/>
           <a:chOff x="249" y="249"/>
           <a:chExt cx="272" cy="258"/>
@@ -3203,11 +3197,11 @@
     <tabColor rgb="FF00B050"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
+      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3224,7 +3218,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -3235,7 +3229,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
@@ -3246,7 +3240,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="35"/>
@@ -3257,7 +3251,7 @@
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -3306,7 +3300,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="7">
         <v>1060</v>
@@ -3315,7 +3309,7 @@
         <v>1140</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
@@ -3352,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C8" s="7">
         <v>1020</v>
@@ -3420,22 +3414,22 @@
       <c r="A11" s="19">
         <v>7</v>
       </c>
-      <c r="B11" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="25">
+      <c r="B11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="7">
         <v>1060</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="7">
         <v>1150</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="19" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3490,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C14" s="7">
         <v>1250</v>
@@ -3513,7 +3507,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C15" s="7">
         <v>1460</v>
@@ -3558,37 +3552,27 @@
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="25">
-        <v>1200</v>
-      </c>
-      <c r="D17" s="25">
-        <v>1299</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
         <v>14</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>10</v>
+        <v>106</v>
       </c>
       <c r="C18" s="7">
-        <v>1095</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="7">
-        <v>1170</v>
+        <v>1299</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>23</v>
@@ -3600,64 +3584,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19">
         <v>15</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>1210</v>
+        <v>1095</v>
       </c>
       <c r="D19" s="7">
-        <v>1299</v>
+        <v>1170</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G19" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19">
         <v>16</v>
       </c>
-      <c r="B20" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="25">
-        <v>1250</v>
-      </c>
-      <c r="D20" s="25">
-        <v>1350</v>
-      </c>
-      <c r="E20" s="23" t="s">
+      <c r="B20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1210</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1299</v>
+      </c>
+      <c r="E20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="26" t="s">
+      <c r="F20" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G20" s="23" t="s">
+      <c r="G20" s="19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19">
         <v>17</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C21" s="7">
         <v>1250</v>
       </c>
       <c r="D21" s="7">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="E21" s="19" t="s">
         <v>23</v>
@@ -3669,70 +3653,50 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19">
         <v>18</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="7">
-        <v>1360</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1440</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G22" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19">
         <v>19</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C23" s="7">
-        <v>1300</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1399</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="B23" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="26"/>
     </row>
     <row r="24" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19">
         <v>20</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="6">
+        <v>51</v>
+      </c>
+      <c r="C24" s="7">
+        <v>1250</v>
+      </c>
+      <c r="D24" s="7">
         <v>1340</v>
-      </c>
-      <c r="D24" s="6">
-        <v>1430</v>
       </c>
       <c r="E24" s="19" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="G24" s="19" t="s">
         <v>19</v>
@@ -3743,19 +3707,19 @@
         <v>21</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>1340</v>
+        <v>1360</v>
       </c>
       <c r="D25" s="7">
-        <v>1450</v>
+        <v>1440</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G25" s="19" t="s">
         <v>19</v>
@@ -3766,19 +3730,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C26" s="7">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="D26" s="7">
-        <v>1499</v>
+        <v>1399</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G26" s="19" t="s">
         <v>19</v>
@@ -3789,19 +3753,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1440</v>
-      </c>
-      <c r="D27" s="7">
-        <v>1540</v>
+        <v>49</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1340</v>
+      </c>
+      <c r="D27" s="6">
+        <v>1430</v>
       </c>
       <c r="E27" s="19" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G27" s="19" t="s">
         <v>19</v>
@@ -3812,235 +3776,225 @@
         <v>24</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="C28" s="7">
-        <v>1330</v>
+        <v>1340</v>
       </c>
       <c r="D28" s="7">
-        <v>1420</v>
+        <v>1450</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G28" s="19" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
+      <c r="A29" s="19">
+        <v>25</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="7">
+        <v>1400</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1499</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="C30" s="7">
-        <v>7430</v>
+        <v>1440</v>
       </c>
       <c r="D30" s="7">
-        <v>7990</v>
+        <v>1540</v>
       </c>
       <c r="E30" s="19" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="G30" s="19" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="19">
-        <v>2</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C31" s="7">
-        <v>7240</v>
-      </c>
-      <c r="D31" s="7">
-        <v>7790</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31" s="19" t="s">
-        <v>42</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="26"/>
     </row>
     <row r="32" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="19">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="C32" s="7">
-        <v>4050</v>
+        <v>1330</v>
       </c>
       <c r="D32" s="7">
-        <v>4290</v>
+        <v>1420</v>
       </c>
       <c r="E32" s="19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G32" s="19" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19">
-        <v>4</v>
-      </c>
-      <c r="B33" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="25">
-        <v>4840</v>
-      </c>
-      <c r="D33" s="25">
-        <v>5190</v>
-      </c>
-      <c r="E33" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" s="23" t="s">
-        <v>41</v>
-      </c>
+      <c r="A33" s="37"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
-        <v>5</v>
-      </c>
-      <c r="B34" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="25">
-        <v>5290</v>
-      </c>
-      <c r="D34" s="25">
-        <v>5690</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>120</v>
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="7">
+        <v>7430</v>
+      </c>
+      <c r="D34" s="7">
+        <v>7990</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="19">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C35" s="7">
-        <v>5750</v>
+        <v>7240</v>
       </c>
       <c r="D35" s="7">
-        <v>6190</v>
+        <v>7790</v>
       </c>
       <c r="E35" s="19" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G35" s="19" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C36" s="7">
-        <v>6470</v>
+        <v>4840</v>
       </c>
       <c r="D36" s="7">
-        <v>6990</v>
+        <v>5190</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>31</v>
+        <v>109</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G36" s="19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="19">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C37" s="7">
-        <v>6570</v>
+        <v>5290</v>
       </c>
       <c r="D37" s="7">
-        <v>6990</v>
+        <v>5690</v>
       </c>
       <c r="E37" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F37" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G37" s="19" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B38" s="20" t="s">
-        <v>122</v>
+        <v>94</v>
       </c>
       <c r="C38" s="7">
-        <v>3890</v>
+        <v>5750</v>
       </c>
       <c r="D38" s="7">
-        <v>4190</v>
+        <v>6190</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="G38" s="19" t="s">
         <v>45</v>
@@ -4048,251 +4002,299 @@
     </row>
     <row r="39" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="19">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B39" s="20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C39" s="7">
-        <v>7350</v>
+        <v>6570</v>
       </c>
       <c r="D39" s="7">
-        <v>7990</v>
+        <v>6990</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="C40" s="7">
-        <v>7430</v>
+        <v>3890</v>
       </c>
       <c r="D40" s="7">
-        <v>7990</v>
+        <v>4190</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F40" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" s="19" t="s">
         <v>40</v>
-      </c>
-      <c r="G40" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" s="7">
-        <v>9300</v>
+        <v>7350</v>
       </c>
       <c r="D41" s="7">
-        <v>9790</v>
+        <v>7990</v>
       </c>
       <c r="E41" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G41" s="19" t="s">
         <v>39</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C42" s="7">
-        <v>10130</v>
+        <v>7430</v>
       </c>
       <c r="D42" s="7">
-        <v>10890</v>
+        <v>7990</v>
       </c>
       <c r="E42" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G42" s="19" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="19">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C43" s="7">
-        <v>7980</v>
+        <v>9300</v>
       </c>
       <c r="D43" s="7">
-        <v>8590</v>
+        <v>9790</v>
       </c>
       <c r="E43" s="19" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G43" s="19" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C44" s="7">
-        <v>9290</v>
+        <v>10130</v>
       </c>
       <c r="D44" s="7">
-        <v>9990</v>
+        <v>10890</v>
       </c>
       <c r="E44" s="19" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G44" s="19" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="19">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C45" s="7">
-        <v>10230</v>
+        <v>7980</v>
       </c>
       <c r="D45" s="7">
-        <v>10990</v>
+        <v>8590</v>
       </c>
       <c r="E45" s="19" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="G45" s="19" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19">
-        <v>17</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" s="7">
-        <v>9290</v>
-      </c>
-      <c r="D46" s="7">
-        <v>9990</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>60</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="B46" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
-        <v>18</v>
-      </c>
-      <c r="B47" s="20"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="7"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="19"/>
-    </row>
-    <row r="48" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="30"/>
-      <c r="C48" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D47" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>15</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="7">
+        <v>10230</v>
+      </c>
+      <c r="D48" s="7">
+        <v>10990</v>
+      </c>
+      <c r="E48" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G48" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="G48" s="36"/>
-    </row>
-    <row r="49" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="28"/>
-      <c r="F50" s="28"/>
-      <c r="G50" s="28"/>
+    </row>
+    <row r="49" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>16</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="7">
+        <v>9290</v>
+      </c>
+      <c r="D49" s="7">
+        <v>9990</v>
+      </c>
+      <c r="E49" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="30"/>
+      <c r="C50" s="36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D50" s="36"/>
+      <c r="E50" s="36"/>
+      <c r="F50" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" s="36"/>
+    </row>
+    <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36"/>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="36"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="28"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="28"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
     <sortCondition ref="A29"/>
   </sortState>
   <mergeCells count="8">
-    <mergeCell ref="A50:G50"/>
-    <mergeCell ref="A48:B49"/>
+    <mergeCell ref="A52:G52"/>
+    <mergeCell ref="A50:B51"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C48:E49"/>
-    <mergeCell ref="F48:G49"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="C50:E51"/>
+    <mergeCell ref="F50:G51"/>
+    <mergeCell ref="A33:G33"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup scale="88" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="85" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A48" numberStoredAsText="1"/>
+    <ignoredError sqref="A50" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -4303,7 +4305,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4317,7 +4319,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -4325,7 +4327,7 @@
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -4333,7 +4335,7 @@
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -4341,21 +4343,21 @@
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4365,7 +4367,7 @@
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4375,10 +4377,10 @@
     </row>
     <row r="7" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C7" s="11">
         <v>14540</v>
@@ -4389,10 +4391,10 @@
     </row>
     <row r="8" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C8" s="11">
         <v>8490</v>
@@ -4404,10 +4406,10 @@
     </row>
     <row r="9" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="11">
         <v>10320</v>
@@ -4419,10 +4421,10 @@
     </row>
     <row r="10" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11">
         <v>11200</v>
@@ -4435,10 +4437,10 @@
     </row>
     <row r="11" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C11" s="11">
         <v>13070</v>
@@ -4451,10 +4453,10 @@
     </row>
     <row r="12" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C12" s="11">
         <v>13990</v>
@@ -4479,10 +4481,10 @@
     </row>
     <row r="15" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C15" s="11">
         <v>21270</v>
@@ -4491,10 +4493,10 @@
     </row>
     <row r="16" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C16" s="11">
         <v>25890</v>
@@ -4507,10 +4509,10 @@
     </row>
     <row r="17" spans="1:8" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C17" s="11">
         <v>12240</v>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -3200,8 +3200,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
+      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -404,7 +404,7 @@
     <t xml:space="preserve">      Z33 (</t>
   </si>
   <si>
-    <t>Last Updated on: 04/09/2021</t>
+    <t>Last Updated on: 07/09/2021</t>
   </si>
 </sst>
 </file>
@@ -3201,7 +3201,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="M20" sqref="L20:M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
+++ b/Symphony/2021/Others/Price List/Price List -16.06.2021.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="122">
   <si>
     <t>Model Name</t>
   </si>
@@ -401,10 +401,10 @@
     <t>S45</t>
   </si>
   <si>
-    <t xml:space="preserve">      Z33 (</t>
-  </si>
-  <si>
-    <t>Last Updated on: 07/09/2021</t>
+    <t xml:space="preserve">      Z33  (3GB+32GB)</t>
+  </si>
+  <si>
+    <t>Last Updated on: 21/09/2021</t>
   </si>
 </sst>
 </file>
@@ -530,7 +530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -552,6 +552,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,7 +689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,9 +761,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,6 +804,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3200,8 +3215,8 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M20" sqref="L20:M20"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J55" sqref="J55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,37 +3232,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" spans="1:7" s="18" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
@@ -3552,14 +3567,24 @@
       <c r="A17" s="19">
         <v>13</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="7">
+        <v>1190</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1290</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19">
@@ -3877,13 +3902,13 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="37"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
-      <c r="F33" s="38"/>
-      <c r="G33" s="39"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="38"/>
     </row>
     <row r="34" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19">
@@ -4165,14 +4190,24 @@
       <c r="A46" s="19">
         <v>13</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="26"/>
+      <c r="C46" s="43">
+        <v>8300</v>
+      </c>
+      <c r="D46" s="43">
+        <v>8790</v>
+      </c>
+      <c r="E46" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="F46" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="19">
@@ -4244,37 +4279,37 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="B50" s="30"/>
-      <c r="C50" s="36" t="s">
+      <c r="B50" s="29"/>
+      <c r="C50" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="D50" s="36"/>
-      <c r="E50" s="36"/>
-      <c r="F50" s="36" t="s">
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G50" s="36"/>
+      <c r="G50" s="35"/>
     </row>
     <row r="51" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36"/>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="36"/>
+      <c r="A51" s="30"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="28"/>
-      <c r="C52" s="28"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="28"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="28"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="27"/>
+      <c r="F52" s="27"/>
+      <c r="G52" s="27"/>
     </row>
   </sheetData>
   <sortState ref="A29:H53">
@@ -4318,28 +4353,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:10" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="40" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
     </row>
     <row r="3" spans="1:10" s="14" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
     </row>
     <row r="4" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
